--- a/Tests/test results.xlsx
+++ b/Tests/test results.xlsx
@@ -435,7 +435,7 @@
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -508,6 +508,9 @@
       <c r="D7" t="s">
         <v>11</v>
       </c>
+      <c r="E7">
+        <v>8</v>
+      </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -545,6 +548,9 @@
       <c r="D13" t="s">
         <v>11</v>
       </c>
+      <c r="E13">
+        <v>5</v>
+      </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -581,6 +587,9 @@
     <row r="19" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D19" t="s">
         <v>11</v>
+      </c>
+      <c r="E19">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Tests/test results.xlsx
+++ b/Tests/test results.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="23">
   <si>
     <t>Mode</t>
   </si>
@@ -77,17 +77,29 @@
     <t>40 MHz</t>
   </si>
   <si>
-    <t>Best Case Average Latency</t>
+    <t>b/g freespace</t>
   </si>
   <si>
-    <t>Worst Case Average Latency</t>
+    <t>D0</t>
+  </si>
+  <si>
+    <t>D1</t>
+  </si>
+  <si>
+    <t>D2</t>
+  </si>
+  <si>
+    <t>D3</t>
+  </si>
+  <si>
+    <t>D4</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -95,13 +107,25 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -113,13 +137,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -133,6 +160,2511 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>571059</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>36245</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D100505F-C9CD-4819-B1BF-1E77D8B165DF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="4800600"/>
+          <a:ext cx="5316241" cy="3998645"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>571059</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>45770</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CABC9D88-8797-4CB6-A751-3C5A4EEE08AE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="9191625"/>
+          <a:ext cx="5333559" cy="3998645"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>588377</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>188645</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Picture 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{35DD553D-995D-46F6-8164-4E3E7CFA733E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="13525500"/>
+          <a:ext cx="5333559" cy="3998645"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>588377</xdr:colOff>
+      <xdr:row>114</xdr:row>
+      <xdr:rowOff>188645</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Picture 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{84D35172-6556-454E-A527-6EA9956999D9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="17907000"/>
+          <a:ext cx="5333559" cy="3998645"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>118</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>588377</xdr:colOff>
+      <xdr:row>138</xdr:row>
+      <xdr:rowOff>188645</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="Picture 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D69A47A-2F51-4CF7-BD61-B6AD97D3A8FD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="22479000"/>
+          <a:ext cx="5350877" cy="3998645"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>692726</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>155863</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>432512</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>154008</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="Picture 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C01E273-D7BF-40CF-B6DF-8CBD8EF5CA86}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5437908" y="4918363"/>
+          <a:ext cx="5333559" cy="3998645"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>675409</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>138545</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>415195</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>136690</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="Picture 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F585E73E-72E8-4AF5-9772-C8D50B1B7428}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5420591" y="9282545"/>
+          <a:ext cx="5333559" cy="3998645"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>692728</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>432514</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>188645</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="20" name="Picture 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{70790CC7-2549-4907-AA6E-232F6BE45AB9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5437910" y="13525500"/>
+          <a:ext cx="5333559" cy="3998645"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>779318</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>17318</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>519104</xdr:colOff>
+      <xdr:row>115</xdr:row>
+      <xdr:rowOff>15463</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="22" name="Picture 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{824318C5-C0FA-44AC-8090-43F6FE39E727}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5524500" y="17924318"/>
+          <a:ext cx="5333559" cy="3998645"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>727364</xdr:colOff>
+      <xdr:row>117</xdr:row>
+      <xdr:rowOff>173182</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>467150</xdr:colOff>
+      <xdr:row>138</xdr:row>
+      <xdr:rowOff>171327</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="24" name="Picture 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F77A3501-FC35-4086-B8C1-C5281BA8AF50}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5472546" y="22461682"/>
+          <a:ext cx="5333559" cy="3998645"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>484468</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>188645</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="26" name="Picture 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CA644E0A-5D8D-4A6F-A609-B47B5EDE6389}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10945091" y="4953000"/>
+          <a:ext cx="5333559" cy="3998645"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>484468</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>188645</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="28" name="Picture 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8A7F7C52-D341-478F-B5BD-BFF745B95009}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10945091" y="9144000"/>
+          <a:ext cx="5333559" cy="3998645"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>484468</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>188645</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="30" name="Picture 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{02F325D2-82BE-4AD8-B4C0-F77AC7193D73}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10945091" y="13525500"/>
+          <a:ext cx="5333559" cy="3998645"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>456759</xdr:colOff>
+      <xdr:row>115</xdr:row>
+      <xdr:rowOff>188645</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="32" name="Picture 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8EFDAAC3-2292-4BEA-89C3-1BB200AD721E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10991850" y="18097500"/>
+          <a:ext cx="5333559" cy="3998645"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>117</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>456759</xdr:colOff>
+      <xdr:row>137</xdr:row>
+      <xdr:rowOff>188645</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="34" name="Picture 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E187F67A-A601-426F-9B48-D4208C2FDEC9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10991850" y="22288500"/>
+          <a:ext cx="5333559" cy="3998645"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>456759</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>188645</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="36" name="Picture 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A7D59C1-EDDE-492D-A52D-8F2E96826C38}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16478250" y="4953000"/>
+          <a:ext cx="5333559" cy="3998645"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>456759</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>188645</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="38" name="Picture 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3A958705-4728-4467-ADFE-13BFD1BD83CF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16478250" y="9144000"/>
+          <a:ext cx="5333559" cy="3998645"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>513909</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>188645</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="40" name="Picture 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D4936A3-80ED-42E1-9EB9-DDD0DB19003E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16535400" y="13525500"/>
+          <a:ext cx="5333559" cy="3998645"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>456759</xdr:colOff>
+      <xdr:row>115</xdr:row>
+      <xdr:rowOff>188645</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="42" name="Picture 41">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7146992F-7D73-4613-8C67-36628E785C36}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16478250" y="18097500"/>
+          <a:ext cx="5333559" cy="3998645"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>117</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>456759</xdr:colOff>
+      <xdr:row>137</xdr:row>
+      <xdr:rowOff>188645</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="44" name="Picture 43">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{82BB4936-87E0-4773-AE45-6253F8A56412}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16478250" y="22288500"/>
+          <a:ext cx="5333559" cy="3998645"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>456759</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>188645</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="46" name="Picture 45">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D442B457-9A4F-4A4A-84B5-376AC8152E69}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="21964650" y="4953000"/>
+          <a:ext cx="5333559" cy="3998645"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>456759</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>188645</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="48" name="Picture 47">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E24055B2-6CBC-47D1-BB98-6EFE70CD0103}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId22">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="21964650" y="9144000"/>
+          <a:ext cx="5333559" cy="3998645"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>456759</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>188645</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="50" name="Picture 49">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5E1E40F8-417F-4C70-9011-D6E785774028}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId23">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="21964650" y="13525500"/>
+          <a:ext cx="5333559" cy="3998645"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>456759</xdr:colOff>
+      <xdr:row>115</xdr:row>
+      <xdr:rowOff>188645</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="52" name="Picture 51">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D8793FC6-EBF4-4227-8C4D-AD24642C8E71}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId24">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="21964650" y="18097500"/>
+          <a:ext cx="5333559" cy="3998645"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>117</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>456759</xdr:colOff>
+      <xdr:row>137</xdr:row>
+      <xdr:rowOff>188645</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="54" name="Picture 53">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F597DB06-5178-4CC6-97C3-4D107D9C0433}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId25">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="21964650" y="22288500"/>
+          <a:ext cx="5333559" cy="3998645"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>456759</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>188645</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="56" name="Picture 55">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4A9025B8-BF03-4E48-93B2-2E83D8372BB3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId26">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="27451050" y="4953000"/>
+          <a:ext cx="5333559" cy="3998645"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>456759</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>188645</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="58" name="Picture 57">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7BBA8D7C-599B-414C-9954-3C3276BE635B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId27">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="27451050" y="9334500"/>
+          <a:ext cx="5333559" cy="3998645"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>456759</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>188645</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="60" name="Picture 59">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B045437E-F9D4-4B77-BEE8-C2E54918DDDC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId28">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="27451050" y="13525500"/>
+          <a:ext cx="5333559" cy="3998645"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>456759</xdr:colOff>
+      <xdr:row>115</xdr:row>
+      <xdr:rowOff>188645</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="62" name="Picture 61">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{15CEE776-0E19-4B77-BCB4-9CE045EC0985}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId29">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="27451050" y="18097500"/>
+          <a:ext cx="5333559" cy="3998645"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>117</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>456759</xdr:colOff>
+      <xdr:row>137</xdr:row>
+      <xdr:rowOff>188645</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="64" name="Picture 63">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FB286C08-08B9-4EB7-8C10-2E6C42F9BD82}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId30">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="27451050" y="22288500"/>
+          <a:ext cx="5333559" cy="3998645"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>52</xdr:col>
+      <xdr:colOff>456759</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>188645</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="66" name="Picture 65">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{88A369EE-04AE-478A-AF02-47D0442F6882}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId31">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="32937450" y="4953000"/>
+          <a:ext cx="5333559" cy="3998645"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>52</xdr:col>
+      <xdr:colOff>456759</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>188645</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="68" name="Picture 67">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{241C222E-E4E1-4215-AB92-81EED6384D4D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId32">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="32937450" y="9334500"/>
+          <a:ext cx="5333559" cy="3998645"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>52</xdr:col>
+      <xdr:colOff>456759</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>188645</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="70" name="Picture 69">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E4DDEED1-1999-4637-8060-0005F0617FE9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId33">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="32937450" y="13716000"/>
+          <a:ext cx="5333559" cy="3998645"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>52</xdr:col>
+      <xdr:colOff>456759</xdr:colOff>
+      <xdr:row>115</xdr:row>
+      <xdr:rowOff>188645</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="72" name="Picture 71">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0E5F9325-4E92-4CC5-87F4-5E8F028F4890}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId34">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="32937450" y="18097500"/>
+          <a:ext cx="5333559" cy="3998645"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>117</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>52</xdr:col>
+      <xdr:colOff>456759</xdr:colOff>
+      <xdr:row>137</xdr:row>
+      <xdr:rowOff>188645</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="74" name="Picture 73">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A4668211-7639-4F4D-8599-27F6520E9DA9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId35">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="32937450" y="22288500"/>
+          <a:ext cx="5333559" cy="3998645"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>53</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>61</xdr:col>
+      <xdr:colOff>456759</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>188645</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="76" name="Picture 75">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9AC72E45-0062-45EB-AC0D-99F89043CF3B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId36">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="38423850" y="4953000"/>
+          <a:ext cx="5333559" cy="3998645"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>53</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>61</xdr:col>
+      <xdr:colOff>456759</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>188645</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="78" name="Picture 77">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0CD434C4-7A43-4FE2-85F6-90D684F539D5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId37">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="38423850" y="9334500"/>
+          <a:ext cx="5333559" cy="3998645"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>53</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>61</xdr:col>
+      <xdr:colOff>456759</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>188645</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="80" name="Picture 79">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0BF17A39-0AFB-4ED9-84AA-DFED9FF06D1C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId38">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="38423850" y="13716000"/>
+          <a:ext cx="5333559" cy="3998645"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>53</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>61</xdr:col>
+      <xdr:colOff>456759</xdr:colOff>
+      <xdr:row>115</xdr:row>
+      <xdr:rowOff>188645</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="82" name="Picture 81">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3E472759-DD56-4307-995C-016C5432A911}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId39">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="38423850" y="18097500"/>
+          <a:ext cx="5333559" cy="3998645"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>53</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>117</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>61</xdr:col>
+      <xdr:colOff>456759</xdr:colOff>
+      <xdr:row>137</xdr:row>
+      <xdr:rowOff>188645</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="84" name="Picture 83">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{141F879D-5131-43FC-B549-4420768902C7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId40">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="38423850" y="22288500"/>
+          <a:ext cx="5333559" cy="3998645"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>62</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>70</xdr:col>
+      <xdr:colOff>456759</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>188645</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="86" name="Picture 85">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4431EA74-91D5-4C47-AE53-35A34CA0E306}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId41">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="43910250" y="4953000"/>
+          <a:ext cx="5333559" cy="3998645"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>62</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>70</xdr:col>
+      <xdr:colOff>456759</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>188645</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="88" name="Picture 87">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3F3A2E6E-9135-4D98-927E-7F69398C9B66}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId42">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="43910250" y="9334500"/>
+          <a:ext cx="5333559" cy="3998645"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>62</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>70</xdr:col>
+      <xdr:colOff>456759</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>188645</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="90" name="Picture 89">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{79806360-C420-4C73-8B94-FEF909421658}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId43">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="43910250" y="13716000"/>
+          <a:ext cx="5333559" cy="3998645"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>62</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>70</xdr:col>
+      <xdr:colOff>456759</xdr:colOff>
+      <xdr:row>114</xdr:row>
+      <xdr:rowOff>188645</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="92" name="Picture 91">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FA61F467-B136-42DB-99D3-416C74800894}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId44">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="43910250" y="17907000"/>
+          <a:ext cx="5333559" cy="3998645"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>62</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>117</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>70</xdr:col>
+      <xdr:colOff>456759</xdr:colOff>
+      <xdr:row>137</xdr:row>
+      <xdr:rowOff>188645</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="94" name="Picture 93">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{995B59AF-043A-4244-B565-BAD107B1752C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId45">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="43910250" y="22288500"/>
+          <a:ext cx="5333559" cy="3998645"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>71</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>79</xdr:col>
+      <xdr:colOff>456759</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>188645</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="96" name="Picture 95">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2EF776A5-AAA8-40B1-8F08-A29B0A6F7A23}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId46">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="49396650" y="4953000"/>
+          <a:ext cx="5333559" cy="3998645"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>71</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>79</xdr:col>
+      <xdr:colOff>456759</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>188645</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="98" name="Picture 97">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F8597D0-E756-445E-890F-B8D63DCA8D7A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId47">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="49396650" y="9334500"/>
+          <a:ext cx="5333559" cy="3998645"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>71</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>79</xdr:col>
+      <xdr:colOff>456759</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>188645</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="100" name="Picture 99">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{931E3457-66D8-4658-8005-5948C26BEEDA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId48">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="49396650" y="13716000"/>
+          <a:ext cx="5333559" cy="3998645"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>71</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>79</xdr:col>
+      <xdr:colOff>456759</xdr:colOff>
+      <xdr:row>114</xdr:row>
+      <xdr:rowOff>188645</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="102" name="Picture 101">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C6F82A73-43E3-4B4E-8248-DDA692666ED0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId49">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="49396650" y="17907000"/>
+          <a:ext cx="5333559" cy="3998645"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>71</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>116</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>79</xdr:col>
+      <xdr:colOff>475809</xdr:colOff>
+      <xdr:row>137</xdr:row>
+      <xdr:rowOff>169595</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="104" name="Picture 103">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4649F65B-6F5E-412F-B6F0-342C2AA4100B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId50">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="49415700" y="22269450"/>
+          <a:ext cx="5333559" cy="3998645"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -432,10 +2964,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:CC140"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -449,7 +2981,7 @@
     <col min="7" max="7" width="28" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -465,14 +2997,8 @@
       <c r="E1" t="s">
         <v>12</v>
       </c>
-      <c r="F1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -486,12 +3012,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D5" t="s">
         <v>9</v>
       </c>
@@ -499,12 +3025,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D7" t="s">
         <v>11</v>
       </c>
@@ -512,7 +3038,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -526,12 +3052,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D10" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D11" t="s">
         <v>9</v>
       </c>
@@ -539,12 +3065,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D12" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D13" t="s">
         <v>11</v>
       </c>
@@ -552,7 +3078,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -566,12 +3092,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D16" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:81" x14ac:dyDescent="0.25">
       <c r="D17" t="s">
         <v>9</v>
       </c>
@@ -579,21 +3105,865 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:81" x14ac:dyDescent="0.25">
       <c r="D18" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:81" x14ac:dyDescent="0.25">
       <c r="D19" t="s">
         <v>11</v>
       </c>
       <c r="E19">
         <v>7</v>
       </c>
+    </row>
+    <row r="23" spans="1:81" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="25" spans="1:81" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="1"/>
+      <c r="O25" s="1"/>
+      <c r="P25" s="1"/>
+      <c r="Q25" s="1"/>
+      <c r="R25" s="1"/>
+      <c r="S25" s="1"/>
+      <c r="T25" s="1"/>
+      <c r="U25" s="1"/>
+      <c r="V25" s="1"/>
+      <c r="W25" s="1"/>
+      <c r="X25" s="1"/>
+      <c r="Y25" s="1"/>
+      <c r="Z25" s="1"/>
+      <c r="AA25" s="1"/>
+      <c r="AB25" s="1"/>
+      <c r="AC25" s="1"/>
+      <c r="AD25" s="1"/>
+      <c r="AE25" s="1"/>
+      <c r="AF25" s="1"/>
+      <c r="AG25" s="1"/>
+      <c r="AH25" s="1"/>
+      <c r="AI25" s="1"/>
+      <c r="AJ25" s="1"/>
+      <c r="AK25" s="1"/>
+      <c r="AL25" s="1"/>
+      <c r="AM25" s="1"/>
+      <c r="AN25" s="1"/>
+      <c r="AO25" s="1"/>
+      <c r="AP25" s="1"/>
+      <c r="AQ25" s="1"/>
+      <c r="AR25" s="1"/>
+      <c r="AS25" s="1"/>
+      <c r="AT25" s="1"/>
+      <c r="AU25" s="1"/>
+      <c r="AV25" s="1"/>
+      <c r="AW25" s="1"/>
+      <c r="AX25" s="1"/>
+      <c r="AY25" s="1"/>
+      <c r="AZ25" s="1"/>
+      <c r="BA25" s="1"/>
+      <c r="BB25" s="1"/>
+      <c r="BC25" s="1"/>
+      <c r="BD25" s="1"/>
+      <c r="BE25" s="1"/>
+      <c r="BF25" s="1"/>
+      <c r="BG25" s="1"/>
+      <c r="BH25" s="1"/>
+      <c r="BI25" s="1"/>
+      <c r="BJ25" s="1"/>
+      <c r="BK25" s="1"/>
+      <c r="BL25" s="1"/>
+      <c r="BM25" s="1"/>
+      <c r="BN25" s="1"/>
+      <c r="BO25" s="1"/>
+      <c r="BP25" s="1"/>
+      <c r="BQ25" s="1"/>
+      <c r="BR25" s="1"/>
+      <c r="BS25" s="1"/>
+      <c r="BT25" s="1"/>
+      <c r="BU25" s="1"/>
+      <c r="BV25" s="1"/>
+      <c r="BW25" s="1"/>
+      <c r="BX25" s="1"/>
+      <c r="BY25" s="1"/>
+      <c r="BZ25" s="1"/>
+      <c r="CA25" s="1"/>
+      <c r="CB25" s="1"/>
+      <c r="CC25" s="1"/>
+    </row>
+    <row r="26" spans="1:81" x14ac:dyDescent="0.25">
+      <c r="CC26" s="1"/>
+    </row>
+    <row r="27" spans="1:81" x14ac:dyDescent="0.25">
+      <c r="CC27" s="1"/>
+    </row>
+    <row r="28" spans="1:81" x14ac:dyDescent="0.25">
+      <c r="CC28" s="1"/>
+    </row>
+    <row r="29" spans="1:81" x14ac:dyDescent="0.25">
+      <c r="CC29" s="1"/>
+    </row>
+    <row r="30" spans="1:81" x14ac:dyDescent="0.25">
+      <c r="CC30" s="1"/>
+    </row>
+    <row r="31" spans="1:81" x14ac:dyDescent="0.25">
+      <c r="CC31" s="1"/>
+    </row>
+    <row r="32" spans="1:81" x14ac:dyDescent="0.25">
+      <c r="CC32" s="1"/>
+    </row>
+    <row r="33" spans="1:81" x14ac:dyDescent="0.25">
+      <c r="CC33" s="1"/>
+    </row>
+    <row r="34" spans="1:81" x14ac:dyDescent="0.25">
+      <c r="CC34" s="1"/>
+    </row>
+    <row r="35" spans="1:81" x14ac:dyDescent="0.25">
+      <c r="CC35" s="1"/>
+    </row>
+    <row r="36" spans="1:81" x14ac:dyDescent="0.25">
+      <c r="CC36" s="1"/>
+    </row>
+    <row r="37" spans="1:81" x14ac:dyDescent="0.25">
+      <c r="CC37" s="1"/>
+    </row>
+    <row r="38" spans="1:81" x14ac:dyDescent="0.25">
+      <c r="CC38" s="1"/>
+    </row>
+    <row r="39" spans="1:81" x14ac:dyDescent="0.25">
+      <c r="CC39" s="1"/>
+    </row>
+    <row r="40" spans="1:81" x14ac:dyDescent="0.25">
+      <c r="CC40" s="1"/>
+    </row>
+    <row r="41" spans="1:81" x14ac:dyDescent="0.25">
+      <c r="CC41" s="1"/>
+    </row>
+    <row r="42" spans="1:81" x14ac:dyDescent="0.25">
+      <c r="CC42" s="1"/>
+    </row>
+    <row r="43" spans="1:81" x14ac:dyDescent="0.25">
+      <c r="CC43" s="1"/>
+    </row>
+    <row r="44" spans="1:81" x14ac:dyDescent="0.25">
+      <c r="CC44" s="1"/>
+    </row>
+    <row r="45" spans="1:81" x14ac:dyDescent="0.25">
+      <c r="CC45" s="1"/>
+    </row>
+    <row r="46" spans="1:81" x14ac:dyDescent="0.25">
+      <c r="CC46" s="1"/>
+    </row>
+    <row r="47" spans="1:81" x14ac:dyDescent="0.25">
+      <c r="CC47" s="1"/>
+    </row>
+    <row r="48" spans="1:81" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B48" s="1"/>
+      <c r="C48" s="1"/>
+      <c r="D48" s="1"/>
+      <c r="E48" s="1"/>
+      <c r="F48" s="1"/>
+      <c r="G48" s="1"/>
+      <c r="H48" s="1"/>
+      <c r="I48" s="1"/>
+      <c r="J48" s="1"/>
+      <c r="K48" s="1"/>
+      <c r="L48" s="1"/>
+      <c r="M48" s="1"/>
+      <c r="N48" s="1"/>
+      <c r="O48" s="1"/>
+      <c r="P48" s="1"/>
+      <c r="Q48" s="1"/>
+      <c r="R48" s="1"/>
+      <c r="S48" s="1"/>
+      <c r="T48" s="1"/>
+      <c r="U48" s="1"/>
+      <c r="V48" s="1"/>
+      <c r="W48" s="1"/>
+      <c r="X48" s="1"/>
+      <c r="Y48" s="1"/>
+      <c r="Z48" s="1"/>
+      <c r="AA48" s="1"/>
+      <c r="AB48" s="1"/>
+      <c r="AC48" s="1"/>
+      <c r="AD48" s="1"/>
+      <c r="AE48" s="1"/>
+      <c r="AF48" s="1"/>
+      <c r="AG48" s="1"/>
+      <c r="AH48" s="1"/>
+      <c r="AI48" s="1"/>
+      <c r="AJ48" s="1"/>
+      <c r="AK48" s="1"/>
+      <c r="AL48" s="1"/>
+      <c r="AM48" s="1"/>
+      <c r="AN48" s="1"/>
+      <c r="AO48" s="1"/>
+      <c r="AP48" s="1"/>
+      <c r="AQ48" s="1"/>
+      <c r="AR48" s="1"/>
+      <c r="AS48" s="1"/>
+      <c r="AT48" s="1"/>
+      <c r="AU48" s="1"/>
+      <c r="AV48" s="1"/>
+      <c r="AW48" s="1"/>
+      <c r="AX48" s="1"/>
+      <c r="AY48" s="1"/>
+      <c r="AZ48" s="1"/>
+      <c r="BA48" s="1"/>
+      <c r="BB48" s="1"/>
+      <c r="BC48" s="1"/>
+      <c r="BD48" s="1"/>
+      <c r="BE48" s="1"/>
+      <c r="BF48" s="1"/>
+      <c r="BG48" s="1"/>
+      <c r="BH48" s="1"/>
+      <c r="BI48" s="1"/>
+      <c r="BJ48" s="1"/>
+      <c r="BK48" s="1"/>
+      <c r="BL48" s="1"/>
+      <c r="BM48" s="1"/>
+      <c r="BN48" s="1"/>
+      <c r="BO48" s="1"/>
+      <c r="BP48" s="1"/>
+      <c r="BQ48" s="1"/>
+      <c r="BR48" s="1"/>
+      <c r="BS48" s="1"/>
+      <c r="BT48" s="1"/>
+      <c r="BU48" s="1"/>
+      <c r="BV48" s="1"/>
+      <c r="BW48" s="1"/>
+      <c r="BX48" s="1"/>
+      <c r="BY48" s="1"/>
+      <c r="BZ48" s="1"/>
+      <c r="CA48" s="1"/>
+      <c r="CB48" s="1"/>
+      <c r="CC48" s="1"/>
+    </row>
+    <row r="49" spans="81:81" x14ac:dyDescent="0.25">
+      <c r="CC49" s="1"/>
+    </row>
+    <row r="50" spans="81:81" x14ac:dyDescent="0.25">
+      <c r="CC50" s="1"/>
+    </row>
+    <row r="51" spans="81:81" x14ac:dyDescent="0.25">
+      <c r="CC51" s="1"/>
+    </row>
+    <row r="52" spans="81:81" x14ac:dyDescent="0.25">
+      <c r="CC52" s="1"/>
+    </row>
+    <row r="53" spans="81:81" x14ac:dyDescent="0.25">
+      <c r="CC53" s="1"/>
+    </row>
+    <row r="54" spans="81:81" x14ac:dyDescent="0.25">
+      <c r="CC54" s="1"/>
+    </row>
+    <row r="55" spans="81:81" x14ac:dyDescent="0.25">
+      <c r="CC55" s="1"/>
+    </row>
+    <row r="56" spans="81:81" x14ac:dyDescent="0.25">
+      <c r="CC56" s="1"/>
+    </row>
+    <row r="57" spans="81:81" x14ac:dyDescent="0.25">
+      <c r="CC57" s="1"/>
+    </row>
+    <row r="58" spans="81:81" x14ac:dyDescent="0.25">
+      <c r="CC58" s="1"/>
+    </row>
+    <row r="59" spans="81:81" x14ac:dyDescent="0.25">
+      <c r="CC59" s="1"/>
+    </row>
+    <row r="60" spans="81:81" x14ac:dyDescent="0.25">
+      <c r="CC60" s="1"/>
+    </row>
+    <row r="61" spans="81:81" x14ac:dyDescent="0.25">
+      <c r="CC61" s="1"/>
+    </row>
+    <row r="62" spans="81:81" x14ac:dyDescent="0.25">
+      <c r="CC62" s="1"/>
+    </row>
+    <row r="63" spans="81:81" x14ac:dyDescent="0.25">
+      <c r="CC63" s="1"/>
+    </row>
+    <row r="64" spans="81:81" x14ac:dyDescent="0.25">
+      <c r="CC64" s="1"/>
+    </row>
+    <row r="65" spans="1:81" x14ac:dyDescent="0.25">
+      <c r="CC65" s="1"/>
+    </row>
+    <row r="66" spans="1:81" x14ac:dyDescent="0.25">
+      <c r="CC66" s="1"/>
+    </row>
+    <row r="67" spans="1:81" x14ac:dyDescent="0.25">
+      <c r="CC67" s="1"/>
+    </row>
+    <row r="68" spans="1:81" x14ac:dyDescent="0.25">
+      <c r="CC68" s="1"/>
+    </row>
+    <row r="69" spans="1:81" x14ac:dyDescent="0.25">
+      <c r="CC69" s="1"/>
+    </row>
+    <row r="70" spans="1:81" x14ac:dyDescent="0.25">
+      <c r="CC70" s="1"/>
+    </row>
+    <row r="71" spans="1:81" x14ac:dyDescent="0.25">
+      <c r="A71" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B71" s="1"/>
+      <c r="C71" s="1"/>
+      <c r="D71" s="1"/>
+      <c r="E71" s="1"/>
+      <c r="F71" s="1"/>
+      <c r="G71" s="1"/>
+      <c r="H71" s="1"/>
+      <c r="I71" s="1"/>
+      <c r="J71" s="1"/>
+      <c r="K71" s="1"/>
+      <c r="L71" s="1"/>
+      <c r="M71" s="1"/>
+      <c r="N71" s="1"/>
+      <c r="O71" s="1"/>
+      <c r="P71" s="1"/>
+      <c r="Q71" s="1"/>
+      <c r="R71" s="1"/>
+      <c r="S71" s="1"/>
+      <c r="T71" s="1"/>
+      <c r="U71" s="1"/>
+      <c r="V71" s="1"/>
+      <c r="W71" s="1"/>
+      <c r="X71" s="1"/>
+      <c r="Y71" s="1"/>
+      <c r="Z71" s="1"/>
+      <c r="AA71" s="1"/>
+      <c r="AB71" s="1"/>
+      <c r="AC71" s="1"/>
+      <c r="AD71" s="1"/>
+      <c r="AE71" s="1"/>
+      <c r="AF71" s="1"/>
+      <c r="AG71" s="1"/>
+      <c r="AH71" s="1"/>
+      <c r="AI71" s="1"/>
+      <c r="AJ71" s="1"/>
+      <c r="AK71" s="1"/>
+      <c r="AL71" s="1"/>
+      <c r="AM71" s="1"/>
+      <c r="AN71" s="1"/>
+      <c r="AO71" s="1"/>
+      <c r="AP71" s="1"/>
+      <c r="AQ71" s="1"/>
+      <c r="AR71" s="1"/>
+      <c r="AS71" s="1"/>
+      <c r="AT71" s="1"/>
+      <c r="AU71" s="1"/>
+      <c r="AV71" s="1"/>
+      <c r="AW71" s="1"/>
+      <c r="AX71" s="1"/>
+      <c r="AY71" s="1"/>
+      <c r="AZ71" s="1"/>
+      <c r="BA71" s="1"/>
+      <c r="BB71" s="1"/>
+      <c r="BC71" s="1"/>
+      <c r="BD71" s="1"/>
+      <c r="BE71" s="1"/>
+      <c r="BF71" s="1"/>
+      <c r="BG71" s="1"/>
+      <c r="BH71" s="1"/>
+      <c r="BI71" s="1"/>
+      <c r="BJ71" s="1"/>
+      <c r="BK71" s="1"/>
+      <c r="BL71" s="1"/>
+      <c r="BM71" s="1"/>
+      <c r="BN71" s="1"/>
+      <c r="BO71" s="1"/>
+      <c r="BP71" s="1"/>
+      <c r="BQ71" s="1"/>
+      <c r="BR71" s="1"/>
+      <c r="BS71" s="1"/>
+      <c r="BT71" s="1"/>
+      <c r="BU71" s="1"/>
+      <c r="BV71" s="1"/>
+      <c r="BW71" s="1"/>
+      <c r="BX71" s="1"/>
+      <c r="BY71" s="1"/>
+      <c r="BZ71" s="1"/>
+      <c r="CA71" s="1"/>
+      <c r="CB71" s="1"/>
+      <c r="CC71" s="1"/>
+    </row>
+    <row r="72" spans="1:81" x14ac:dyDescent="0.25">
+      <c r="CC72" s="1"/>
+    </row>
+    <row r="73" spans="1:81" x14ac:dyDescent="0.25">
+      <c r="CC73" s="1"/>
+    </row>
+    <row r="74" spans="1:81" x14ac:dyDescent="0.25">
+      <c r="CC74" s="1"/>
+    </row>
+    <row r="75" spans="1:81" x14ac:dyDescent="0.25">
+      <c r="CC75" s="1"/>
+    </row>
+    <row r="76" spans="1:81" x14ac:dyDescent="0.25">
+      <c r="CC76" s="1"/>
+    </row>
+    <row r="77" spans="1:81" x14ac:dyDescent="0.25">
+      <c r="CC77" s="1"/>
+    </row>
+    <row r="78" spans="1:81" x14ac:dyDescent="0.25">
+      <c r="CC78" s="1"/>
+    </row>
+    <row r="79" spans="1:81" x14ac:dyDescent="0.25">
+      <c r="CC79" s="1"/>
+    </row>
+    <row r="80" spans="1:81" x14ac:dyDescent="0.25">
+      <c r="CC80" s="1"/>
+    </row>
+    <row r="81" spans="1:81" x14ac:dyDescent="0.25">
+      <c r="CC81" s="1"/>
+    </row>
+    <row r="82" spans="1:81" x14ac:dyDescent="0.25">
+      <c r="CC82" s="1"/>
+    </row>
+    <row r="83" spans="1:81" x14ac:dyDescent="0.25">
+      <c r="CC83" s="1"/>
+    </row>
+    <row r="84" spans="1:81" x14ac:dyDescent="0.25">
+      <c r="CC84" s="1"/>
+    </row>
+    <row r="85" spans="1:81" x14ac:dyDescent="0.25">
+      <c r="CC85" s="1"/>
+    </row>
+    <row r="86" spans="1:81" x14ac:dyDescent="0.25">
+      <c r="CC86" s="1"/>
+    </row>
+    <row r="87" spans="1:81" x14ac:dyDescent="0.25">
+      <c r="CC87" s="1"/>
+    </row>
+    <row r="88" spans="1:81" x14ac:dyDescent="0.25">
+      <c r="CC88" s="1"/>
+    </row>
+    <row r="89" spans="1:81" x14ac:dyDescent="0.25">
+      <c r="CC89" s="1"/>
+    </row>
+    <row r="90" spans="1:81" x14ac:dyDescent="0.25">
+      <c r="CC90" s="1"/>
+    </row>
+    <row r="91" spans="1:81" x14ac:dyDescent="0.25">
+      <c r="CC91" s="1"/>
+    </row>
+    <row r="92" spans="1:81" x14ac:dyDescent="0.25">
+      <c r="CC92" s="1"/>
+    </row>
+    <row r="93" spans="1:81" x14ac:dyDescent="0.25">
+      <c r="CC93" s="1"/>
+    </row>
+    <row r="94" spans="1:81" x14ac:dyDescent="0.25">
+      <c r="A94" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B94" s="1"/>
+      <c r="C94" s="1"/>
+      <c r="D94" s="1"/>
+      <c r="E94" s="1"/>
+      <c r="F94" s="1"/>
+      <c r="G94" s="1"/>
+      <c r="H94" s="1"/>
+      <c r="I94" s="1"/>
+      <c r="J94" s="1"/>
+      <c r="K94" s="1"/>
+      <c r="L94" s="1"/>
+      <c r="M94" s="1"/>
+      <c r="N94" s="1"/>
+      <c r="O94" s="1"/>
+      <c r="P94" s="1"/>
+      <c r="Q94" s="1"/>
+      <c r="R94" s="1"/>
+      <c r="S94" s="1"/>
+      <c r="T94" s="1"/>
+      <c r="U94" s="1"/>
+      <c r="V94" s="1"/>
+      <c r="W94" s="1"/>
+      <c r="X94" s="1"/>
+      <c r="Y94" s="1"/>
+      <c r="Z94" s="1"/>
+      <c r="AA94" s="1"/>
+      <c r="AB94" s="1"/>
+      <c r="AC94" s="1"/>
+      <c r="AD94" s="1"/>
+      <c r="AE94" s="1"/>
+      <c r="AF94" s="1"/>
+      <c r="AG94" s="1"/>
+      <c r="AH94" s="1"/>
+      <c r="AI94" s="1"/>
+      <c r="AJ94" s="1"/>
+      <c r="AK94" s="1"/>
+      <c r="AL94" s="1"/>
+      <c r="AM94" s="1"/>
+      <c r="AN94" s="1"/>
+      <c r="AO94" s="1"/>
+      <c r="AP94" s="1"/>
+      <c r="AQ94" s="1"/>
+      <c r="AR94" s="1"/>
+      <c r="AS94" s="1"/>
+      <c r="AT94" s="1"/>
+      <c r="AU94" s="1"/>
+      <c r="AV94" s="1"/>
+      <c r="AW94" s="1"/>
+      <c r="AX94" s="1"/>
+      <c r="AY94" s="1"/>
+      <c r="AZ94" s="1"/>
+      <c r="BA94" s="1"/>
+      <c r="BB94" s="1"/>
+      <c r="BC94" s="1"/>
+      <c r="BD94" s="1"/>
+      <c r="BE94" s="1"/>
+      <c r="BF94" s="1"/>
+      <c r="BG94" s="1"/>
+      <c r="BH94" s="1"/>
+      <c r="BI94" s="1"/>
+      <c r="BJ94" s="1"/>
+      <c r="BK94" s="1"/>
+      <c r="BL94" s="1"/>
+      <c r="BM94" s="1"/>
+      <c r="BN94" s="1"/>
+      <c r="BO94" s="1"/>
+      <c r="BP94" s="1"/>
+      <c r="BQ94" s="1"/>
+      <c r="BR94" s="1"/>
+      <c r="BS94" s="1"/>
+      <c r="BT94" s="1"/>
+      <c r="BU94" s="1"/>
+      <c r="BV94" s="1"/>
+      <c r="BW94" s="1"/>
+      <c r="BX94" s="1"/>
+      <c r="BY94" s="1"/>
+      <c r="BZ94" s="1"/>
+      <c r="CA94" s="1"/>
+      <c r="CB94" s="1"/>
+      <c r="CC94" s="1"/>
+    </row>
+    <row r="95" spans="1:81" x14ac:dyDescent="0.25">
+      <c r="CC95" s="1"/>
+    </row>
+    <row r="96" spans="1:81" x14ac:dyDescent="0.25">
+      <c r="CC96" s="1"/>
+    </row>
+    <row r="97" spans="81:81" x14ac:dyDescent="0.25">
+      <c r="CC97" s="1"/>
+    </row>
+    <row r="98" spans="81:81" x14ac:dyDescent="0.25">
+      <c r="CC98" s="1"/>
+    </row>
+    <row r="99" spans="81:81" x14ac:dyDescent="0.25">
+      <c r="CC99" s="1"/>
+    </row>
+    <row r="100" spans="81:81" x14ac:dyDescent="0.25">
+      <c r="CC100" s="1"/>
+    </row>
+    <row r="101" spans="81:81" x14ac:dyDescent="0.25">
+      <c r="CC101" s="1"/>
+    </row>
+    <row r="102" spans="81:81" x14ac:dyDescent="0.25">
+      <c r="CC102" s="1"/>
+    </row>
+    <row r="103" spans="81:81" x14ac:dyDescent="0.25">
+      <c r="CC103" s="1"/>
+    </row>
+    <row r="104" spans="81:81" x14ac:dyDescent="0.25">
+      <c r="CC104" s="1"/>
+    </row>
+    <row r="105" spans="81:81" x14ac:dyDescent="0.25">
+      <c r="CC105" s="1"/>
+    </row>
+    <row r="106" spans="81:81" x14ac:dyDescent="0.25">
+      <c r="CC106" s="1"/>
+    </row>
+    <row r="107" spans="81:81" x14ac:dyDescent="0.25">
+      <c r="CC107" s="1"/>
+    </row>
+    <row r="108" spans="81:81" x14ac:dyDescent="0.25">
+      <c r="CC108" s="1"/>
+    </row>
+    <row r="109" spans="81:81" x14ac:dyDescent="0.25">
+      <c r="CC109" s="1"/>
+    </row>
+    <row r="110" spans="81:81" x14ac:dyDescent="0.25">
+      <c r="CC110" s="1"/>
+    </row>
+    <row r="111" spans="81:81" x14ac:dyDescent="0.25">
+      <c r="CC111" s="1"/>
+    </row>
+    <row r="112" spans="81:81" x14ac:dyDescent="0.25">
+      <c r="CC112" s="1"/>
+    </row>
+    <row r="113" spans="1:81" x14ac:dyDescent="0.25">
+      <c r="CC113" s="1"/>
+    </row>
+    <row r="114" spans="1:81" x14ac:dyDescent="0.25">
+      <c r="CC114" s="1"/>
+    </row>
+    <row r="115" spans="1:81" x14ac:dyDescent="0.25">
+      <c r="CC115" s="1"/>
+    </row>
+    <row r="116" spans="1:81" x14ac:dyDescent="0.25">
+      <c r="CC116" s="1"/>
+    </row>
+    <row r="117" spans="1:81" x14ac:dyDescent="0.25">
+      <c r="A117" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B117" s="1"/>
+      <c r="C117" s="1"/>
+      <c r="D117" s="1"/>
+      <c r="E117" s="1"/>
+      <c r="F117" s="1"/>
+      <c r="G117" s="1"/>
+      <c r="H117" s="1"/>
+      <c r="I117" s="1"/>
+      <c r="J117" s="1"/>
+      <c r="K117" s="1"/>
+      <c r="L117" s="1"/>
+      <c r="M117" s="1"/>
+      <c r="N117" s="1"/>
+      <c r="O117" s="1"/>
+      <c r="P117" s="1"/>
+      <c r="Q117" s="1"/>
+      <c r="R117" s="1"/>
+      <c r="S117" s="1"/>
+      <c r="T117" s="1"/>
+      <c r="U117" s="1"/>
+      <c r="V117" s="1"/>
+      <c r="W117" s="1"/>
+      <c r="X117" s="1"/>
+      <c r="Y117" s="1"/>
+      <c r="Z117" s="1"/>
+      <c r="AA117" s="1"/>
+      <c r="AB117" s="1"/>
+      <c r="AC117" s="1"/>
+      <c r="AD117" s="1"/>
+      <c r="AE117" s="1"/>
+      <c r="AF117" s="1"/>
+      <c r="AG117" s="1"/>
+      <c r="AH117" s="1"/>
+      <c r="AI117" s="1"/>
+      <c r="AJ117" s="1"/>
+      <c r="AK117" s="1"/>
+      <c r="AL117" s="1"/>
+      <c r="AM117" s="1"/>
+      <c r="AN117" s="1"/>
+      <c r="AO117" s="1"/>
+      <c r="AP117" s="1"/>
+      <c r="AQ117" s="1"/>
+      <c r="AR117" s="1"/>
+      <c r="AS117" s="1"/>
+      <c r="AT117" s="1"/>
+      <c r="AU117" s="1"/>
+      <c r="AV117" s="1"/>
+      <c r="AW117" s="1"/>
+      <c r="AX117" s="1"/>
+      <c r="AY117" s="1"/>
+      <c r="AZ117" s="1"/>
+      <c r="BA117" s="1"/>
+      <c r="BB117" s="1"/>
+      <c r="BC117" s="1"/>
+      <c r="BD117" s="1"/>
+      <c r="BE117" s="1"/>
+      <c r="BF117" s="1"/>
+      <c r="BG117" s="1"/>
+      <c r="BH117" s="1"/>
+      <c r="BI117" s="1"/>
+      <c r="BJ117" s="1"/>
+      <c r="BK117" s="1"/>
+      <c r="BL117" s="1"/>
+      <c r="BM117" s="1"/>
+      <c r="BN117" s="1"/>
+      <c r="BO117" s="1"/>
+      <c r="BP117" s="1"/>
+      <c r="BQ117" s="1"/>
+      <c r="BR117" s="1"/>
+      <c r="BS117" s="1"/>
+      <c r="BT117" s="1"/>
+      <c r="BU117" s="1"/>
+      <c r="BV117" s="1"/>
+      <c r="BW117" s="1"/>
+      <c r="BX117" s="1"/>
+      <c r="BY117" s="1"/>
+      <c r="BZ117" s="1"/>
+      <c r="CA117" s="1"/>
+      <c r="CB117" s="1"/>
+      <c r="CC117" s="1"/>
+    </row>
+    <row r="118" spans="1:81" x14ac:dyDescent="0.25">
+      <c r="CC118" s="1"/>
+    </row>
+    <row r="119" spans="1:81" x14ac:dyDescent="0.25">
+      <c r="CC119" s="1"/>
+    </row>
+    <row r="120" spans="1:81" x14ac:dyDescent="0.25">
+      <c r="CC120" s="1"/>
+    </row>
+    <row r="121" spans="1:81" x14ac:dyDescent="0.25">
+      <c r="CC121" s="1"/>
+    </row>
+    <row r="122" spans="1:81" x14ac:dyDescent="0.25">
+      <c r="CC122" s="1"/>
+    </row>
+    <row r="123" spans="1:81" x14ac:dyDescent="0.25">
+      <c r="CC123" s="1"/>
+    </row>
+    <row r="124" spans="1:81" x14ac:dyDescent="0.25">
+      <c r="CC124" s="1"/>
+    </row>
+    <row r="125" spans="1:81" x14ac:dyDescent="0.25">
+      <c r="CC125" s="1"/>
+    </row>
+    <row r="126" spans="1:81" x14ac:dyDescent="0.25">
+      <c r="CC126" s="1"/>
+    </row>
+    <row r="127" spans="1:81" x14ac:dyDescent="0.25">
+      <c r="CC127" s="1"/>
+    </row>
+    <row r="128" spans="1:81" x14ac:dyDescent="0.25">
+      <c r="CC128" s="1"/>
+    </row>
+    <row r="129" spans="1:81" x14ac:dyDescent="0.25">
+      <c r="CC129" s="1"/>
+    </row>
+    <row r="130" spans="1:81" x14ac:dyDescent="0.25">
+      <c r="CC130" s="1"/>
+    </row>
+    <row r="131" spans="1:81" x14ac:dyDescent="0.25">
+      <c r="CC131" s="1"/>
+    </row>
+    <row r="132" spans="1:81" x14ac:dyDescent="0.25">
+      <c r="CC132" s="1"/>
+    </row>
+    <row r="133" spans="1:81" x14ac:dyDescent="0.25">
+      <c r="CC133" s="1"/>
+    </row>
+    <row r="134" spans="1:81" x14ac:dyDescent="0.25">
+      <c r="CC134" s="1"/>
+    </row>
+    <row r="135" spans="1:81" x14ac:dyDescent="0.25">
+      <c r="CC135" s="1"/>
+    </row>
+    <row r="136" spans="1:81" x14ac:dyDescent="0.25">
+      <c r="CC136" s="1"/>
+    </row>
+    <row r="137" spans="1:81" x14ac:dyDescent="0.25">
+      <c r="CC137" s="1"/>
+    </row>
+    <row r="138" spans="1:81" x14ac:dyDescent="0.25">
+      <c r="CC138" s="1"/>
+    </row>
+    <row r="139" spans="1:81" x14ac:dyDescent="0.25">
+      <c r="CC139" s="1"/>
+    </row>
+    <row r="140" spans="1:81" x14ac:dyDescent="0.25">
+      <c r="A140" s="1"/>
+      <c r="B140" s="1"/>
+      <c r="C140" s="1"/>
+      <c r="D140" s="1"/>
+      <c r="E140" s="1"/>
+      <c r="F140" s="1"/>
+      <c r="G140" s="1"/>
+      <c r="H140" s="1"/>
+      <c r="I140" s="1"/>
+      <c r="J140" s="1"/>
+      <c r="K140" s="1"/>
+      <c r="L140" s="1"/>
+      <c r="M140" s="1"/>
+      <c r="N140" s="1"/>
+      <c r="O140" s="1"/>
+      <c r="P140" s="1"/>
+      <c r="Q140" s="1"/>
+      <c r="R140" s="1"/>
+      <c r="S140" s="1"/>
+      <c r="T140" s="1"/>
+      <c r="U140" s="1"/>
+      <c r="V140" s="1"/>
+      <c r="W140" s="1"/>
+      <c r="X140" s="1"/>
+      <c r="Y140" s="1"/>
+      <c r="Z140" s="1"/>
+      <c r="AA140" s="1"/>
+      <c r="AB140" s="1"/>
+      <c r="AC140" s="1"/>
+      <c r="AD140" s="1"/>
+      <c r="AE140" s="1"/>
+      <c r="AF140" s="1"/>
+      <c r="AG140" s="1"/>
+      <c r="AH140" s="1"/>
+      <c r="AI140" s="1"/>
+      <c r="AJ140" s="1"/>
+      <c r="AK140" s="1"/>
+      <c r="AL140" s="1"/>
+      <c r="AM140" s="1"/>
+      <c r="AN140" s="1"/>
+      <c r="AO140" s="1"/>
+      <c r="AP140" s="1"/>
+      <c r="AQ140" s="1"/>
+      <c r="AR140" s="1"/>
+      <c r="AS140" s="1"/>
+      <c r="AT140" s="1"/>
+      <c r="AU140" s="1"/>
+      <c r="AV140" s="1"/>
+      <c r="AW140" s="1"/>
+      <c r="AX140" s="1"/>
+      <c r="AY140" s="1"/>
+      <c r="AZ140" s="1"/>
+      <c r="BA140" s="1"/>
+      <c r="BB140" s="1"/>
+      <c r="BC140" s="1"/>
+      <c r="BD140" s="1"/>
+      <c r="BE140" s="1"/>
+      <c r="BF140" s="1"/>
+      <c r="BG140" s="1"/>
+      <c r="BH140" s="1"/>
+      <c r="BI140" s="1"/>
+      <c r="BJ140" s="1"/>
+      <c r="BK140" s="1"/>
+      <c r="BL140" s="1"/>
+      <c r="BM140" s="1"/>
+      <c r="BN140" s="1"/>
+      <c r="BO140" s="1"/>
+      <c r="BP140" s="1"/>
+      <c r="BQ140" s="1"/>
+      <c r="BR140" s="1"/>
+      <c r="BS140" s="1"/>
+      <c r="BT140" s="1"/>
+      <c r="BU140" s="1"/>
+      <c r="BV140" s="1"/>
+      <c r="BW140" s="1"/>
+      <c r="BX140" s="1"/>
+      <c r="BY140" s="1"/>
+      <c r="BZ140" s="1"/>
+      <c r="CA140" s="1"/>
+      <c r="CB140" s="1"/>
+      <c r="CC140" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Tests/test results.xlsx
+++ b/Tests/test results.xlsx
@@ -24,61 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="23">
-  <si>
-    <t>Mode</t>
-  </si>
-  <si>
-    <t>Test Case</t>
-  </si>
-  <si>
-    <t>b/g mixed</t>
-  </si>
-  <si>
-    <t>N/A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Frequency </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Channel Width </t>
-  </si>
-  <si>
-    <t>2.4 GHz</t>
-  </si>
-  <si>
-    <t>Moving Nodes</t>
-  </si>
-  <si>
-    <t>Stationary Nodes</t>
-  </si>
-  <si>
-    <t>Free Space</t>
-  </si>
-  <si>
-    <t>Line of Sight</t>
-  </si>
-  <si>
-    <t>No Line of Sight</t>
-  </si>
-  <si>
-    <t>Number of Successful Tests / 10</t>
-  </si>
-  <si>
-    <t>n mode</t>
-  </si>
-  <si>
-    <t>20 MHz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.4 GHz </t>
-  </si>
-  <si>
-    <t>40 MHz</t>
-  </si>
-  <si>
-    <t>b/g freespace</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>D0</t>
   </si>
@@ -93,6 +39,9 @@
   </si>
   <si>
     <t>D4</t>
+  </si>
+  <si>
+    <t>b/g freespace stationary</t>
   </si>
 </sst>
 </file>
@@ -168,13 +117,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>571059</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>36245</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -218,13 +167,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>571059</xdr:colOff>
-      <xdr:row>69</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>45770</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -268,13 +217,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>71</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>588377</xdr:colOff>
-      <xdr:row>91</xdr:row>
+      <xdr:row>70</xdr:row>
       <xdr:rowOff>188645</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -318,13 +267,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>94</xdr:row>
+      <xdr:row>73</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>588377</xdr:colOff>
-      <xdr:row>114</xdr:row>
+      <xdr:row>93</xdr:row>
       <xdr:rowOff>188645</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -368,13 +317,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>118</xdr:row>
+      <xdr:row>97</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>588377</xdr:colOff>
-      <xdr:row>138</xdr:row>
+      <xdr:row>117</xdr:row>
       <xdr:rowOff>188645</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -418,13 +367,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>692726</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>155863</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>432512</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>154008</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -468,13 +417,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>675409</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>138545</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>415195</xdr:colOff>
-      <xdr:row>69</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>136690</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -518,13 +467,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>692728</xdr:colOff>
-      <xdr:row>71</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>432514</xdr:colOff>
-      <xdr:row>91</xdr:row>
+      <xdr:row>70</xdr:row>
       <xdr:rowOff>188645</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -568,13 +517,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>779318</xdr:colOff>
-      <xdr:row>94</xdr:row>
+      <xdr:row>73</xdr:row>
       <xdr:rowOff>17318</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>519104</xdr:colOff>
-      <xdr:row>115</xdr:row>
+      <xdr:row>94</xdr:row>
       <xdr:rowOff>15463</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -618,13 +567,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>727364</xdr:colOff>
-      <xdr:row>117</xdr:row>
+      <xdr:row>96</xdr:row>
       <xdr:rowOff>173182</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>467150</xdr:colOff>
-      <xdr:row>138</xdr:row>
+      <xdr:row>117</xdr:row>
       <xdr:rowOff>171327</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -668,13 +617,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>484468</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>188645</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -718,13 +667,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>484468</xdr:colOff>
-      <xdr:row>68</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>188645</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -768,13 +717,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>71</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>484468</xdr:colOff>
-      <xdr:row>91</xdr:row>
+      <xdr:row>70</xdr:row>
       <xdr:rowOff>188645</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -818,13 +767,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>95</xdr:row>
+      <xdr:row>74</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>456759</xdr:colOff>
-      <xdr:row>115</xdr:row>
+      <xdr:row>94</xdr:row>
       <xdr:rowOff>188645</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -868,13 +817,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>117</xdr:row>
+      <xdr:row>96</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>456759</xdr:colOff>
-      <xdr:row>137</xdr:row>
+      <xdr:row>116</xdr:row>
       <xdr:rowOff>188645</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -918,13 +867,13 @@
     <xdr:from>
       <xdr:col>17</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
       <xdr:colOff>456759</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>188645</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -968,13 +917,13 @@
     <xdr:from>
       <xdr:col>17</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
       <xdr:colOff>456759</xdr:colOff>
-      <xdr:row>68</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>188645</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1018,13 +967,13 @@
     <xdr:from>
       <xdr:col>17</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>71</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
       <xdr:colOff>513909</xdr:colOff>
-      <xdr:row>91</xdr:row>
+      <xdr:row>70</xdr:row>
       <xdr:rowOff>188645</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1068,13 +1017,13 @@
     <xdr:from>
       <xdr:col>17</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>95</xdr:row>
+      <xdr:row>74</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
       <xdr:colOff>456759</xdr:colOff>
-      <xdr:row>115</xdr:row>
+      <xdr:row>94</xdr:row>
       <xdr:rowOff>188645</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1118,13 +1067,13 @@
     <xdr:from>
       <xdr:col>17</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>117</xdr:row>
+      <xdr:row>96</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
       <xdr:colOff>456759</xdr:colOff>
-      <xdr:row>137</xdr:row>
+      <xdr:row>116</xdr:row>
       <xdr:rowOff>188645</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1168,13 +1117,13 @@
     <xdr:from>
       <xdr:col>26</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>34</xdr:col>
       <xdr:colOff>456759</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>188645</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1218,13 +1167,13 @@
     <xdr:from>
       <xdr:col>26</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>34</xdr:col>
       <xdr:colOff>456759</xdr:colOff>
-      <xdr:row>68</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>188645</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1268,13 +1217,13 @@
     <xdr:from>
       <xdr:col>26</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>71</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>34</xdr:col>
       <xdr:colOff>456759</xdr:colOff>
-      <xdr:row>91</xdr:row>
+      <xdr:row>70</xdr:row>
       <xdr:rowOff>188645</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1318,13 +1267,13 @@
     <xdr:from>
       <xdr:col>26</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>95</xdr:row>
+      <xdr:row>74</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>34</xdr:col>
       <xdr:colOff>456759</xdr:colOff>
-      <xdr:row>115</xdr:row>
+      <xdr:row>94</xdr:row>
       <xdr:rowOff>188645</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1368,13 +1317,13 @@
     <xdr:from>
       <xdr:col>26</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>117</xdr:row>
+      <xdr:row>96</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>34</xdr:col>
       <xdr:colOff>456759</xdr:colOff>
-      <xdr:row>137</xdr:row>
+      <xdr:row>116</xdr:row>
       <xdr:rowOff>188645</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1418,13 +1367,13 @@
     <xdr:from>
       <xdr:col>35</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>43</xdr:col>
       <xdr:colOff>456759</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>188645</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1468,13 +1417,13 @@
     <xdr:from>
       <xdr:col>35</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>43</xdr:col>
       <xdr:colOff>456759</xdr:colOff>
-      <xdr:row>69</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>188645</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1518,13 +1467,13 @@
     <xdr:from>
       <xdr:col>35</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>71</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>43</xdr:col>
       <xdr:colOff>456759</xdr:colOff>
-      <xdr:row>91</xdr:row>
+      <xdr:row>70</xdr:row>
       <xdr:rowOff>188645</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1568,13 +1517,13 @@
     <xdr:from>
       <xdr:col>35</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>95</xdr:row>
+      <xdr:row>74</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>43</xdr:col>
       <xdr:colOff>456759</xdr:colOff>
-      <xdr:row>115</xdr:row>
+      <xdr:row>94</xdr:row>
       <xdr:rowOff>188645</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1618,13 +1567,13 @@
     <xdr:from>
       <xdr:col>35</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>117</xdr:row>
+      <xdr:row>96</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>43</xdr:col>
       <xdr:colOff>456759</xdr:colOff>
-      <xdr:row>137</xdr:row>
+      <xdr:row>116</xdr:row>
       <xdr:rowOff>188645</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1668,13 +1617,13 @@
     <xdr:from>
       <xdr:col>44</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>52</xdr:col>
       <xdr:colOff>456759</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>188645</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1718,13 +1667,13 @@
     <xdr:from>
       <xdr:col>44</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>52</xdr:col>
       <xdr:colOff>456759</xdr:colOff>
-      <xdr:row>69</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>188645</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1768,13 +1717,13 @@
     <xdr:from>
       <xdr:col>44</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>72</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>52</xdr:col>
       <xdr:colOff>456759</xdr:colOff>
-      <xdr:row>92</xdr:row>
+      <xdr:row>71</xdr:row>
       <xdr:rowOff>188645</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1818,13 +1767,13 @@
     <xdr:from>
       <xdr:col>44</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>95</xdr:row>
+      <xdr:row>74</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>52</xdr:col>
       <xdr:colOff>456759</xdr:colOff>
-      <xdr:row>115</xdr:row>
+      <xdr:row>94</xdr:row>
       <xdr:rowOff>188645</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1868,13 +1817,13 @@
     <xdr:from>
       <xdr:col>44</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>117</xdr:row>
+      <xdr:row>96</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>52</xdr:col>
       <xdr:colOff>456759</xdr:colOff>
-      <xdr:row>137</xdr:row>
+      <xdr:row>116</xdr:row>
       <xdr:rowOff>188645</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1918,13 +1867,13 @@
     <xdr:from>
       <xdr:col>53</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>61</xdr:col>
       <xdr:colOff>456759</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>188645</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1968,13 +1917,13 @@
     <xdr:from>
       <xdr:col>53</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>61</xdr:col>
       <xdr:colOff>456759</xdr:colOff>
-      <xdr:row>69</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>188645</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2018,13 +1967,13 @@
     <xdr:from>
       <xdr:col>53</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>72</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>61</xdr:col>
       <xdr:colOff>456759</xdr:colOff>
-      <xdr:row>92</xdr:row>
+      <xdr:row>71</xdr:row>
       <xdr:rowOff>188645</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2068,13 +2017,13 @@
     <xdr:from>
       <xdr:col>53</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>95</xdr:row>
+      <xdr:row>74</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>61</xdr:col>
       <xdr:colOff>456759</xdr:colOff>
-      <xdr:row>115</xdr:row>
+      <xdr:row>94</xdr:row>
       <xdr:rowOff>188645</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2118,13 +2067,13 @@
     <xdr:from>
       <xdr:col>53</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>117</xdr:row>
+      <xdr:row>96</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>61</xdr:col>
       <xdr:colOff>456759</xdr:colOff>
-      <xdr:row>137</xdr:row>
+      <xdr:row>116</xdr:row>
       <xdr:rowOff>188645</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2168,13 +2117,13 @@
     <xdr:from>
       <xdr:col>62</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>70</xdr:col>
       <xdr:colOff>456759</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>188645</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2218,13 +2167,13 @@
     <xdr:from>
       <xdr:col>62</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>70</xdr:col>
       <xdr:colOff>456759</xdr:colOff>
-      <xdr:row>69</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>188645</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2268,13 +2217,13 @@
     <xdr:from>
       <xdr:col>62</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>72</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>70</xdr:col>
       <xdr:colOff>456759</xdr:colOff>
-      <xdr:row>92</xdr:row>
+      <xdr:row>71</xdr:row>
       <xdr:rowOff>188645</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2318,13 +2267,13 @@
     <xdr:from>
       <xdr:col>62</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>94</xdr:row>
+      <xdr:row>73</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>70</xdr:col>
       <xdr:colOff>456759</xdr:colOff>
-      <xdr:row>114</xdr:row>
+      <xdr:row>93</xdr:row>
       <xdr:rowOff>188645</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2368,13 +2317,13 @@
     <xdr:from>
       <xdr:col>62</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>117</xdr:row>
+      <xdr:row>96</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>70</xdr:col>
       <xdr:colOff>456759</xdr:colOff>
-      <xdr:row>137</xdr:row>
+      <xdr:row>116</xdr:row>
       <xdr:rowOff>188645</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2418,13 +2367,13 @@
     <xdr:from>
       <xdr:col>71</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>79</xdr:col>
       <xdr:colOff>456759</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>188645</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2468,13 +2417,13 @@
     <xdr:from>
       <xdr:col>71</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>79</xdr:col>
       <xdr:colOff>456759</xdr:colOff>
-      <xdr:row>69</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>188645</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2518,13 +2467,13 @@
     <xdr:from>
       <xdr:col>71</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>72</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>79</xdr:col>
       <xdr:colOff>456759</xdr:colOff>
-      <xdr:row>92</xdr:row>
+      <xdr:row>71</xdr:row>
       <xdr:rowOff>188645</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2568,13 +2517,13 @@
     <xdr:from>
       <xdr:col>71</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>94</xdr:row>
+      <xdr:row>73</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>79</xdr:col>
       <xdr:colOff>456759</xdr:colOff>
-      <xdr:row>114</xdr:row>
+      <xdr:row>93</xdr:row>
       <xdr:rowOff>188645</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2618,13 +2567,13 @@
     <xdr:from>
       <xdr:col>71</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>116</xdr:row>
+      <xdr:row>95</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>79</xdr:col>
       <xdr:colOff>475809</xdr:colOff>
-      <xdr:row>137</xdr:row>
+      <xdr:row>116</xdr:row>
       <xdr:rowOff>169595</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2656,6 +2605,476 @@
         <a:xfrm>
           <a:off x="49415700" y="22269450"/>
           <a:ext cx="5333559" cy="3998645"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>120</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>502227</xdr:colOff>
+      <xdr:row>138</xdr:row>
+      <xdr:rowOff>179878</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="55" name="Picture 54">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7F9AC63F-CBC2-455A-9457-C31A415B451D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId51">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect t="51242"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="22860000"/>
+          <a:ext cx="5247409" cy="3608878"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>120</xdr:row>
+      <xdr:rowOff>17318</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>571499</xdr:colOff>
+      <xdr:row>138</xdr:row>
+      <xdr:rowOff>145243</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="57" name="Picture 56">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7FC2CCF1-3F42-4BA3-A163-1E8718C5ECD3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId52">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect t="51943"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5316682" y="22877318"/>
+          <a:ext cx="5593772" cy="3556925"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>-1</xdr:colOff>
+      <xdr:row>120</xdr:row>
+      <xdr:rowOff>17318</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>588818</xdr:colOff>
+      <xdr:row>139</xdr:row>
+      <xdr:rowOff>110605</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="59" name="Picture 58">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{33BC9C1B-A8E8-4674-9801-26E86AE3C87F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId53">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="583" t="51944" r="-583" b="-2106"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10945090" y="22877318"/>
+          <a:ext cx="5437910" cy="3712787"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>119</xdr:row>
+      <xdr:rowOff>155863</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>536864</xdr:colOff>
+      <xdr:row>138</xdr:row>
+      <xdr:rowOff>75968</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="61" name="Picture 60">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{87F44148-7114-48AD-8CA8-B529DCDF53D6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId54">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect t="52177"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16590818" y="22825363"/>
+          <a:ext cx="5195455" cy="3539605"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>86592</xdr:colOff>
+      <xdr:row>119</xdr:row>
+      <xdr:rowOff>138546</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>17318</xdr:colOff>
+      <xdr:row>138</xdr:row>
+      <xdr:rowOff>110606</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="63" name="Picture 62">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{146FF821-A844-4D8D-97C1-690F74398941}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId55">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect t="51476"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="21942137" y="22808046"/>
+          <a:ext cx="5385954" cy="3591560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>69272</xdr:colOff>
+      <xdr:row>119</xdr:row>
+      <xdr:rowOff>138545</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>450272</xdr:colOff>
+      <xdr:row>138</xdr:row>
+      <xdr:rowOff>75969</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="67" name="Picture 66">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0537F94E-2A08-4888-95D5-A299AB6F1CBE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId56">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect t="51943"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="27380045" y="22808045"/>
+          <a:ext cx="5230091" cy="3556924"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>606135</xdr:colOff>
+      <xdr:row>119</xdr:row>
+      <xdr:rowOff>173181</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>53</xdr:col>
+      <xdr:colOff>17318</xdr:colOff>
+      <xdr:row>139</xdr:row>
+      <xdr:rowOff>24014</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="69" name="Picture 68">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{60EF4064-F013-49E1-A1AD-6467CF54AD3F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId57">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect t="50540"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="32765999" y="22842681"/>
+          <a:ext cx="5472546" cy="3660833"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>53</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>120</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>62</xdr:col>
+      <xdr:colOff>69272</xdr:colOff>
+      <xdr:row>138</xdr:row>
+      <xdr:rowOff>162560</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="71" name="Picture 70">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A95EB094-FB74-4E8D-98EC-CEB830E0882B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId58">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect t="51476"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="38411727" y="22860000"/>
+          <a:ext cx="5334000" cy="3591560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>62</xdr:col>
+      <xdr:colOff>225136</xdr:colOff>
+      <xdr:row>120</xdr:row>
+      <xdr:rowOff>34636</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>71</xdr:col>
+      <xdr:colOff>86591</xdr:colOff>
+      <xdr:row>139</xdr:row>
+      <xdr:rowOff>127923</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="73" name="Picture 72">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6FDFD1C4-7521-408E-8F8D-456CDA34E9F0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId59">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect t="49838"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="43901591" y="22894636"/>
+          <a:ext cx="5316682" cy="3712787"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>71</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>120</xdr:row>
+      <xdr:rowOff>34637</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>81</xdr:col>
+      <xdr:colOff>72737</xdr:colOff>
+      <xdr:row>140</xdr:row>
+      <xdr:rowOff>6697</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="75" name="Picture 74">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5CD7B4EA-7A40-46A3-BA28-ADD03A750FCA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId60">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect t="48902"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="49322182" y="22894637"/>
+          <a:ext cx="5943600" cy="3782060"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2964,10 +3383,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:CC140"/>
+  <dimension ref="A2:CC119"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:G1"/>
+    <sheetView tabSelected="1" topLeftCell="A61" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AM150" sqref="AM150"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2981,690 +3400,698 @@
     <col min="7" max="7" width="28" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="2" spans="1:81" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:81" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1"/>
+      <c r="T4" s="1"/>
+      <c r="U4" s="1"/>
+      <c r="V4" s="1"/>
+      <c r="W4" s="1"/>
+      <c r="X4" s="1"/>
+      <c r="Y4" s="1"/>
+      <c r="Z4" s="1"/>
+      <c r="AA4" s="1"/>
+      <c r="AB4" s="1"/>
+      <c r="AC4" s="1"/>
+      <c r="AD4" s="1"/>
+      <c r="AE4" s="1"/>
+      <c r="AF4" s="1"/>
+      <c r="AG4" s="1"/>
+      <c r="AH4" s="1"/>
+      <c r="AI4" s="1"/>
+      <c r="AJ4" s="1"/>
+      <c r="AK4" s="1"/>
+      <c r="AL4" s="1"/>
+      <c r="AM4" s="1"/>
+      <c r="AN4" s="1"/>
+      <c r="AO4" s="1"/>
+      <c r="AP4" s="1"/>
+      <c r="AQ4" s="1"/>
+      <c r="AR4" s="1"/>
+      <c r="AS4" s="1"/>
+      <c r="AT4" s="1"/>
+      <c r="AU4" s="1"/>
+      <c r="AV4" s="1"/>
+      <c r="AW4" s="1"/>
+      <c r="AX4" s="1"/>
+      <c r="AY4" s="1"/>
+      <c r="AZ4" s="1"/>
+      <c r="BA4" s="1"/>
+      <c r="BB4" s="1"/>
+      <c r="BC4" s="1"/>
+      <c r="BD4" s="1"/>
+      <c r="BE4" s="1"/>
+      <c r="BF4" s="1"/>
+      <c r="BG4" s="1"/>
+      <c r="BH4" s="1"/>
+      <c r="BI4" s="1"/>
+      <c r="BJ4" s="1"/>
+      <c r="BK4" s="1"/>
+      <c r="BL4" s="1"/>
+      <c r="BM4" s="1"/>
+      <c r="BN4" s="1"/>
+      <c r="BO4" s="1"/>
+      <c r="BP4" s="1"/>
+      <c r="BQ4" s="1"/>
+      <c r="BR4" s="1"/>
+      <c r="BS4" s="1"/>
+      <c r="BT4" s="1"/>
+      <c r="BU4" s="1"/>
+      <c r="BV4" s="1"/>
+      <c r="BW4" s="1"/>
+      <c r="BX4" s="1"/>
+      <c r="BY4" s="1"/>
+      <c r="BZ4" s="1"/>
+      <c r="CA4" s="1"/>
+      <c r="CB4" s="1"/>
+      <c r="CC4" s="1"/>
+    </row>
+    <row r="5" spans="1:81" x14ac:dyDescent="0.25">
+      <c r="CC5" s="1"/>
+    </row>
+    <row r="6" spans="1:81" x14ac:dyDescent="0.25">
+      <c r="CC6" s="1"/>
+    </row>
+    <row r="7" spans="1:81" x14ac:dyDescent="0.25">
+      <c r="CC7" s="1"/>
+    </row>
+    <row r="8" spans="1:81" x14ac:dyDescent="0.25">
+      <c r="CC8" s="1"/>
+    </row>
+    <row r="9" spans="1:81" x14ac:dyDescent="0.25">
+      <c r="CC9" s="1"/>
+    </row>
+    <row r="10" spans="1:81" x14ac:dyDescent="0.25">
+      <c r="CC10" s="1"/>
+    </row>
+    <row r="11" spans="1:81" x14ac:dyDescent="0.25">
+      <c r="CC11" s="1"/>
+    </row>
+    <row r="12" spans="1:81" x14ac:dyDescent="0.25">
+      <c r="CC12" s="1"/>
+    </row>
+    <row r="13" spans="1:81" x14ac:dyDescent="0.25">
+      <c r="CC13" s="1"/>
+    </row>
+    <row r="14" spans="1:81" x14ac:dyDescent="0.25">
+      <c r="CC14" s="1"/>
+    </row>
+    <row r="15" spans="1:81" x14ac:dyDescent="0.25">
+      <c r="CC15" s="1"/>
+    </row>
+    <row r="16" spans="1:81" x14ac:dyDescent="0.25">
+      <c r="CC16" s="1"/>
+    </row>
+    <row r="17" spans="1:81" x14ac:dyDescent="0.25">
+      <c r="CC17" s="1"/>
+    </row>
+    <row r="18" spans="1:81" x14ac:dyDescent="0.25">
+      <c r="CC18" s="1"/>
+    </row>
+    <row r="19" spans="1:81" x14ac:dyDescent="0.25">
+      <c r="CC19" s="1"/>
+    </row>
+    <row r="20" spans="1:81" x14ac:dyDescent="0.25">
+      <c r="CC20" s="1"/>
+    </row>
+    <row r="21" spans="1:81" x14ac:dyDescent="0.25">
+      <c r="CC21" s="1"/>
+    </row>
+    <row r="22" spans="1:81" x14ac:dyDescent="0.25">
+      <c r="CC22" s="1"/>
+    </row>
+    <row r="23" spans="1:81" x14ac:dyDescent="0.25">
+      <c r="CC23" s="1"/>
+    </row>
+    <row r="24" spans="1:81" x14ac:dyDescent="0.25">
+      <c r="CC24" s="1"/>
+    </row>
+    <row r="25" spans="1:81" x14ac:dyDescent="0.25">
+      <c r="CC25" s="1"/>
+    </row>
+    <row r="26" spans="1:81" x14ac:dyDescent="0.25">
+      <c r="CC26" s="1"/>
+    </row>
+    <row r="27" spans="1:81" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
+      <c r="M27" s="1"/>
+      <c r="N27" s="1"/>
+      <c r="O27" s="1"/>
+      <c r="P27" s="1"/>
+      <c r="Q27" s="1"/>
+      <c r="R27" s="1"/>
+      <c r="S27" s="1"/>
+      <c r="T27" s="1"/>
+      <c r="U27" s="1"/>
+      <c r="V27" s="1"/>
+      <c r="W27" s="1"/>
+      <c r="X27" s="1"/>
+      <c r="Y27" s="1"/>
+      <c r="Z27" s="1"/>
+      <c r="AA27" s="1"/>
+      <c r="AB27" s="1"/>
+      <c r="AC27" s="1"/>
+      <c r="AD27" s="1"/>
+      <c r="AE27" s="1"/>
+      <c r="AF27" s="1"/>
+      <c r="AG27" s="1"/>
+      <c r="AH27" s="1"/>
+      <c r="AI27" s="1"/>
+      <c r="AJ27" s="1"/>
+      <c r="AK27" s="1"/>
+      <c r="AL27" s="1"/>
+      <c r="AM27" s="1"/>
+      <c r="AN27" s="1"/>
+      <c r="AO27" s="1"/>
+      <c r="AP27" s="1"/>
+      <c r="AQ27" s="1"/>
+      <c r="AR27" s="1"/>
+      <c r="AS27" s="1"/>
+      <c r="AT27" s="1"/>
+      <c r="AU27" s="1"/>
+      <c r="AV27" s="1"/>
+      <c r="AW27" s="1"/>
+      <c r="AX27" s="1"/>
+      <c r="AY27" s="1"/>
+      <c r="AZ27" s="1"/>
+      <c r="BA27" s="1"/>
+      <c r="BB27" s="1"/>
+      <c r="BC27" s="1"/>
+      <c r="BD27" s="1"/>
+      <c r="BE27" s="1"/>
+      <c r="BF27" s="1"/>
+      <c r="BG27" s="1"/>
+      <c r="BH27" s="1"/>
+      <c r="BI27" s="1"/>
+      <c r="BJ27" s="1"/>
+      <c r="BK27" s="1"/>
+      <c r="BL27" s="1"/>
+      <c r="BM27" s="1"/>
+      <c r="BN27" s="1"/>
+      <c r="BO27" s="1"/>
+      <c r="BP27" s="1"/>
+      <c r="BQ27" s="1"/>
+      <c r="BR27" s="1"/>
+      <c r="BS27" s="1"/>
+      <c r="BT27" s="1"/>
+      <c r="BU27" s="1"/>
+      <c r="BV27" s="1"/>
+      <c r="BW27" s="1"/>
+      <c r="BX27" s="1"/>
+      <c r="BY27" s="1"/>
+      <c r="BZ27" s="1"/>
+      <c r="CA27" s="1"/>
+      <c r="CB27" s="1"/>
+      <c r="CC27" s="1"/>
+    </row>
+    <row r="28" spans="1:81" x14ac:dyDescent="0.25">
+      <c r="CC28" s="1"/>
+    </row>
+    <row r="29" spans="1:81" x14ac:dyDescent="0.25">
+      <c r="CC29" s="1"/>
+    </row>
+    <row r="30" spans="1:81" x14ac:dyDescent="0.25">
+      <c r="CC30" s="1"/>
+    </row>
+    <row r="31" spans="1:81" x14ac:dyDescent="0.25">
+      <c r="CC31" s="1"/>
+    </row>
+    <row r="32" spans="1:81" x14ac:dyDescent="0.25">
+      <c r="CC32" s="1"/>
+    </row>
+    <row r="33" spans="81:81" x14ac:dyDescent="0.25">
+      <c r="CC33" s="1"/>
+    </row>
+    <row r="34" spans="81:81" x14ac:dyDescent="0.25">
+      <c r="CC34" s="1"/>
+    </row>
+    <row r="35" spans="81:81" x14ac:dyDescent="0.25">
+      <c r="CC35" s="1"/>
+    </row>
+    <row r="36" spans="81:81" x14ac:dyDescent="0.25">
+      <c r="CC36" s="1"/>
+    </row>
+    <row r="37" spans="81:81" x14ac:dyDescent="0.25">
+      <c r="CC37" s="1"/>
+    </row>
+    <row r="38" spans="81:81" x14ac:dyDescent="0.25">
+      <c r="CC38" s="1"/>
+    </row>
+    <row r="39" spans="81:81" x14ac:dyDescent="0.25">
+      <c r="CC39" s="1"/>
+    </row>
+    <row r="40" spans="81:81" x14ac:dyDescent="0.25">
+      <c r="CC40" s="1"/>
+    </row>
+    <row r="41" spans="81:81" x14ac:dyDescent="0.25">
+      <c r="CC41" s="1"/>
+    </row>
+    <row r="42" spans="81:81" x14ac:dyDescent="0.25">
+      <c r="CC42" s="1"/>
+    </row>
+    <row r="43" spans="81:81" x14ac:dyDescent="0.25">
+      <c r="CC43" s="1"/>
+    </row>
+    <row r="44" spans="81:81" x14ac:dyDescent="0.25">
+      <c r="CC44" s="1"/>
+    </row>
+    <row r="45" spans="81:81" x14ac:dyDescent="0.25">
+      <c r="CC45" s="1"/>
+    </row>
+    <row r="46" spans="81:81" x14ac:dyDescent="0.25">
+      <c r="CC46" s="1"/>
+    </row>
+    <row r="47" spans="81:81" x14ac:dyDescent="0.25">
+      <c r="CC47" s="1"/>
+    </row>
+    <row r="48" spans="81:81" x14ac:dyDescent="0.25">
+      <c r="CC48" s="1"/>
+    </row>
+    <row r="49" spans="1:81" x14ac:dyDescent="0.25">
+      <c r="CC49" s="1"/>
+    </row>
+    <row r="50" spans="1:81" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B50" s="1"/>
+      <c r="C50" s="1"/>
+      <c r="D50" s="1"/>
+      <c r="E50" s="1"/>
+      <c r="F50" s="1"/>
+      <c r="G50" s="1"/>
+      <c r="H50" s="1"/>
+      <c r="I50" s="1"/>
+      <c r="J50" s="1"/>
+      <c r="K50" s="1"/>
+      <c r="L50" s="1"/>
+      <c r="M50" s="1"/>
+      <c r="N50" s="1"/>
+      <c r="O50" s="1"/>
+      <c r="P50" s="1"/>
+      <c r="Q50" s="1"/>
+      <c r="R50" s="1"/>
+      <c r="S50" s="1"/>
+      <c r="T50" s="1"/>
+      <c r="U50" s="1"/>
+      <c r="V50" s="1"/>
+      <c r="W50" s="1"/>
+      <c r="X50" s="1"/>
+      <c r="Y50" s="1"/>
+      <c r="Z50" s="1"/>
+      <c r="AA50" s="1"/>
+      <c r="AB50" s="1"/>
+      <c r="AC50" s="1"/>
+      <c r="AD50" s="1"/>
+      <c r="AE50" s="1"/>
+      <c r="AF50" s="1"/>
+      <c r="AG50" s="1"/>
+      <c r="AH50" s="1"/>
+      <c r="AI50" s="1"/>
+      <c r="AJ50" s="1"/>
+      <c r="AK50" s="1"/>
+      <c r="AL50" s="1"/>
+      <c r="AM50" s="1"/>
+      <c r="AN50" s="1"/>
+      <c r="AO50" s="1"/>
+      <c r="AP50" s="1"/>
+      <c r="AQ50" s="1"/>
+      <c r="AR50" s="1"/>
+      <c r="AS50" s="1"/>
+      <c r="AT50" s="1"/>
+      <c r="AU50" s="1"/>
+      <c r="AV50" s="1"/>
+      <c r="AW50" s="1"/>
+      <c r="AX50" s="1"/>
+      <c r="AY50" s="1"/>
+      <c r="AZ50" s="1"/>
+      <c r="BA50" s="1"/>
+      <c r="BB50" s="1"/>
+      <c r="BC50" s="1"/>
+      <c r="BD50" s="1"/>
+      <c r="BE50" s="1"/>
+      <c r="BF50" s="1"/>
+      <c r="BG50" s="1"/>
+      <c r="BH50" s="1"/>
+      <c r="BI50" s="1"/>
+      <c r="BJ50" s="1"/>
+      <c r="BK50" s="1"/>
+      <c r="BL50" s="1"/>
+      <c r="BM50" s="1"/>
+      <c r="BN50" s="1"/>
+      <c r="BO50" s="1"/>
+      <c r="BP50" s="1"/>
+      <c r="BQ50" s="1"/>
+      <c r="BR50" s="1"/>
+      <c r="BS50" s="1"/>
+      <c r="BT50" s="1"/>
+      <c r="BU50" s="1"/>
+      <c r="BV50" s="1"/>
+      <c r="BW50" s="1"/>
+      <c r="BX50" s="1"/>
+      <c r="BY50" s="1"/>
+      <c r="BZ50" s="1"/>
+      <c r="CA50" s="1"/>
+      <c r="CB50" s="1"/>
+      <c r="CC50" s="1"/>
+    </row>
+    <row r="51" spans="1:81" x14ac:dyDescent="0.25">
+      <c r="CC51" s="1"/>
+    </row>
+    <row r="52" spans="1:81" x14ac:dyDescent="0.25">
+      <c r="CC52" s="1"/>
+    </row>
+    <row r="53" spans="1:81" x14ac:dyDescent="0.25">
+      <c r="CC53" s="1"/>
+    </row>
+    <row r="54" spans="1:81" x14ac:dyDescent="0.25">
+      <c r="CC54" s="1"/>
+    </row>
+    <row r="55" spans="1:81" x14ac:dyDescent="0.25">
+      <c r="CC55" s="1"/>
+    </row>
+    <row r="56" spans="1:81" x14ac:dyDescent="0.25">
+      <c r="CC56" s="1"/>
+    </row>
+    <row r="57" spans="1:81" x14ac:dyDescent="0.25">
+      <c r="CC57" s="1"/>
+    </row>
+    <row r="58" spans="1:81" x14ac:dyDescent="0.25">
+      <c r="CC58" s="1"/>
+    </row>
+    <row r="59" spans="1:81" x14ac:dyDescent="0.25">
+      <c r="CC59" s="1"/>
+    </row>
+    <row r="60" spans="1:81" x14ac:dyDescent="0.25">
+      <c r="CC60" s="1"/>
+    </row>
+    <row r="61" spans="1:81" x14ac:dyDescent="0.25">
+      <c r="CC61" s="1"/>
+    </row>
+    <row r="62" spans="1:81" x14ac:dyDescent="0.25">
+      <c r="CC62" s="1"/>
+    </row>
+    <row r="63" spans="1:81" x14ac:dyDescent="0.25">
+      <c r="CC63" s="1"/>
+    </row>
+    <row r="64" spans="1:81" x14ac:dyDescent="0.25">
+      <c r="CC64" s="1"/>
+    </row>
+    <row r="65" spans="1:81" x14ac:dyDescent="0.25">
+      <c r="CC65" s="1"/>
+    </row>
+    <row r="66" spans="1:81" x14ac:dyDescent="0.25">
+      <c r="CC66" s="1"/>
+    </row>
+    <row r="67" spans="1:81" x14ac:dyDescent="0.25">
+      <c r="CC67" s="1"/>
+    </row>
+    <row r="68" spans="1:81" x14ac:dyDescent="0.25">
+      <c r="CC68" s="1"/>
+    </row>
+    <row r="69" spans="1:81" x14ac:dyDescent="0.25">
+      <c r="CC69" s="1"/>
+    </row>
+    <row r="70" spans="1:81" x14ac:dyDescent="0.25">
+      <c r="CC70" s="1"/>
+    </row>
+    <row r="71" spans="1:81" x14ac:dyDescent="0.25">
+      <c r="CC71" s="1"/>
+    </row>
+    <row r="72" spans="1:81" x14ac:dyDescent="0.25">
+      <c r="CC72" s="1"/>
+    </row>
+    <row r="73" spans="1:81" x14ac:dyDescent="0.25">
+      <c r="A73" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B73" s="1"/>
+      <c r="C73" s="1"/>
+      <c r="D73" s="1"/>
+      <c r="E73" s="1"/>
+      <c r="F73" s="1"/>
+      <c r="G73" s="1"/>
+      <c r="H73" s="1"/>
+      <c r="I73" s="1"/>
+      <c r="J73" s="1"/>
+      <c r="K73" s="1"/>
+      <c r="L73" s="1"/>
+      <c r="M73" s="1"/>
+      <c r="N73" s="1"/>
+      <c r="O73" s="1"/>
+      <c r="P73" s="1"/>
+      <c r="Q73" s="1"/>
+      <c r="R73" s="1"/>
+      <c r="S73" s="1"/>
+      <c r="T73" s="1"/>
+      <c r="U73" s="1"/>
+      <c r="V73" s="1"/>
+      <c r="W73" s="1"/>
+      <c r="X73" s="1"/>
+      <c r="Y73" s="1"/>
+      <c r="Z73" s="1"/>
+      <c r="AA73" s="1"/>
+      <c r="AB73" s="1"/>
+      <c r="AC73" s="1"/>
+      <c r="AD73" s="1"/>
+      <c r="AE73" s="1"/>
+      <c r="AF73" s="1"/>
+      <c r="AG73" s="1"/>
+      <c r="AH73" s="1"/>
+      <c r="AI73" s="1"/>
+      <c r="AJ73" s="1"/>
+      <c r="AK73" s="1"/>
+      <c r="AL73" s="1"/>
+      <c r="AM73" s="1"/>
+      <c r="AN73" s="1"/>
+      <c r="AO73" s="1"/>
+      <c r="AP73" s="1"/>
+      <c r="AQ73" s="1"/>
+      <c r="AR73" s="1"/>
+      <c r="AS73" s="1"/>
+      <c r="AT73" s="1"/>
+      <c r="AU73" s="1"/>
+      <c r="AV73" s="1"/>
+      <c r="AW73" s="1"/>
+      <c r="AX73" s="1"/>
+      <c r="AY73" s="1"/>
+      <c r="AZ73" s="1"/>
+      <c r="BA73" s="1"/>
+      <c r="BB73" s="1"/>
+      <c r="BC73" s="1"/>
+      <c r="BD73" s="1"/>
+      <c r="BE73" s="1"/>
+      <c r="BF73" s="1"/>
+      <c r="BG73" s="1"/>
+      <c r="BH73" s="1"/>
+      <c r="BI73" s="1"/>
+      <c r="BJ73" s="1"/>
+      <c r="BK73" s="1"/>
+      <c r="BL73" s="1"/>
+      <c r="BM73" s="1"/>
+      <c r="BN73" s="1"/>
+      <c r="BO73" s="1"/>
+      <c r="BP73" s="1"/>
+      <c r="BQ73" s="1"/>
+      <c r="BR73" s="1"/>
+      <c r="BS73" s="1"/>
+      <c r="BT73" s="1"/>
+      <c r="BU73" s="1"/>
+      <c r="BV73" s="1"/>
+      <c r="BW73" s="1"/>
+      <c r="BX73" s="1"/>
+      <c r="BY73" s="1"/>
+      <c r="BZ73" s="1"/>
+      <c r="CA73" s="1"/>
+      <c r="CB73" s="1"/>
+      <c r="CC73" s="1"/>
+    </row>
+    <row r="74" spans="1:81" x14ac:dyDescent="0.25">
+      <c r="CC74" s="1"/>
+    </row>
+    <row r="75" spans="1:81" x14ac:dyDescent="0.25">
+      <c r="CC75" s="1"/>
+    </row>
+    <row r="76" spans="1:81" x14ac:dyDescent="0.25">
+      <c r="CC76" s="1"/>
+    </row>
+    <row r="77" spans="1:81" x14ac:dyDescent="0.25">
+      <c r="CC77" s="1"/>
+    </row>
+    <row r="78" spans="1:81" x14ac:dyDescent="0.25">
+      <c r="CC78" s="1"/>
+    </row>
+    <row r="79" spans="1:81" x14ac:dyDescent="0.25">
+      <c r="CC79" s="1"/>
+    </row>
+    <row r="80" spans="1:81" x14ac:dyDescent="0.25">
+      <c r="CC80" s="1"/>
+    </row>
+    <row r="81" spans="1:81" x14ac:dyDescent="0.25">
+      <c r="CC81" s="1"/>
+    </row>
+    <row r="82" spans="1:81" x14ac:dyDescent="0.25">
+      <c r="CC82" s="1"/>
+    </row>
+    <row r="83" spans="1:81" x14ac:dyDescent="0.25">
+      <c r="CC83" s="1"/>
+    </row>
+    <row r="84" spans="1:81" x14ac:dyDescent="0.25">
+      <c r="CC84" s="1"/>
+    </row>
+    <row r="85" spans="1:81" x14ac:dyDescent="0.25">
+      <c r="CC85" s="1"/>
+    </row>
+    <row r="86" spans="1:81" x14ac:dyDescent="0.25">
+      <c r="CC86" s="1"/>
+    </row>
+    <row r="87" spans="1:81" x14ac:dyDescent="0.25">
+      <c r="CC87" s="1"/>
+    </row>
+    <row r="88" spans="1:81" x14ac:dyDescent="0.25">
+      <c r="CC88" s="1"/>
+    </row>
+    <row r="89" spans="1:81" x14ac:dyDescent="0.25">
+      <c r="CC89" s="1"/>
+    </row>
+    <row r="90" spans="1:81" x14ac:dyDescent="0.25">
+      <c r="CC90" s="1"/>
+    </row>
+    <row r="91" spans="1:81" x14ac:dyDescent="0.25">
+      <c r="CC91" s="1"/>
+    </row>
+    <row r="92" spans="1:81" x14ac:dyDescent="0.25">
+      <c r="CC92" s="1"/>
+    </row>
+    <row r="93" spans="1:81" x14ac:dyDescent="0.25">
+      <c r="CC93" s="1"/>
+    </row>
+    <row r="94" spans="1:81" x14ac:dyDescent="0.25">
+      <c r="CC94" s="1"/>
+    </row>
+    <row r="95" spans="1:81" x14ac:dyDescent="0.25">
+      <c r="CC95" s="1"/>
+    </row>
+    <row r="96" spans="1:81" x14ac:dyDescent="0.25">
+      <c r="A96" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E11">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D13" t="s">
-        <v>11</v>
-      </c>
-      <c r="E13">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15" t="s">
-        <v>15</v>
-      </c>
-      <c r="C15" t="s">
-        <v>16</v>
-      </c>
-      <c r="D15" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D16" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17" spans="1:81" x14ac:dyDescent="0.25">
-      <c r="D17" t="s">
-        <v>9</v>
-      </c>
-      <c r="E17">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18" spans="1:81" x14ac:dyDescent="0.25">
-      <c r="D18" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19" spans="1:81" x14ac:dyDescent="0.25">
-      <c r="D19" t="s">
-        <v>11</v>
-      </c>
-      <c r="E19">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="23" spans="1:81" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="25" spans="1:81" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
-      <c r="J25" s="1"/>
-      <c r="K25" s="1"/>
-      <c r="L25" s="1"/>
-      <c r="M25" s="1"/>
-      <c r="N25" s="1"/>
-      <c r="O25" s="1"/>
-      <c r="P25" s="1"/>
-      <c r="Q25" s="1"/>
-      <c r="R25" s="1"/>
-      <c r="S25" s="1"/>
-      <c r="T25" s="1"/>
-      <c r="U25" s="1"/>
-      <c r="V25" s="1"/>
-      <c r="W25" s="1"/>
-      <c r="X25" s="1"/>
-      <c r="Y25" s="1"/>
-      <c r="Z25" s="1"/>
-      <c r="AA25" s="1"/>
-      <c r="AB25" s="1"/>
-      <c r="AC25" s="1"/>
-      <c r="AD25" s="1"/>
-      <c r="AE25" s="1"/>
-      <c r="AF25" s="1"/>
-      <c r="AG25" s="1"/>
-      <c r="AH25" s="1"/>
-      <c r="AI25" s="1"/>
-      <c r="AJ25" s="1"/>
-      <c r="AK25" s="1"/>
-      <c r="AL25" s="1"/>
-      <c r="AM25" s="1"/>
-      <c r="AN25" s="1"/>
-      <c r="AO25" s="1"/>
-      <c r="AP25" s="1"/>
-      <c r="AQ25" s="1"/>
-      <c r="AR25" s="1"/>
-      <c r="AS25" s="1"/>
-      <c r="AT25" s="1"/>
-      <c r="AU25" s="1"/>
-      <c r="AV25" s="1"/>
-      <c r="AW25" s="1"/>
-      <c r="AX25" s="1"/>
-      <c r="AY25" s="1"/>
-      <c r="AZ25" s="1"/>
-      <c r="BA25" s="1"/>
-      <c r="BB25" s="1"/>
-      <c r="BC25" s="1"/>
-      <c r="BD25" s="1"/>
-      <c r="BE25" s="1"/>
-      <c r="BF25" s="1"/>
-      <c r="BG25" s="1"/>
-      <c r="BH25" s="1"/>
-      <c r="BI25" s="1"/>
-      <c r="BJ25" s="1"/>
-      <c r="BK25" s="1"/>
-      <c r="BL25" s="1"/>
-      <c r="BM25" s="1"/>
-      <c r="BN25" s="1"/>
-      <c r="BO25" s="1"/>
-      <c r="BP25" s="1"/>
-      <c r="BQ25" s="1"/>
-      <c r="BR25" s="1"/>
-      <c r="BS25" s="1"/>
-      <c r="BT25" s="1"/>
-      <c r="BU25" s="1"/>
-      <c r="BV25" s="1"/>
-      <c r="BW25" s="1"/>
-      <c r="BX25" s="1"/>
-      <c r="BY25" s="1"/>
-      <c r="BZ25" s="1"/>
-      <c r="CA25" s="1"/>
-      <c r="CB25" s="1"/>
-      <c r="CC25" s="1"/>
-    </row>
-    <row r="26" spans="1:81" x14ac:dyDescent="0.25">
-      <c r="CC26" s="1"/>
-    </row>
-    <row r="27" spans="1:81" x14ac:dyDescent="0.25">
-      <c r="CC27" s="1"/>
-    </row>
-    <row r="28" spans="1:81" x14ac:dyDescent="0.25">
-      <c r="CC28" s="1"/>
-    </row>
-    <row r="29" spans="1:81" x14ac:dyDescent="0.25">
-      <c r="CC29" s="1"/>
-    </row>
-    <row r="30" spans="1:81" x14ac:dyDescent="0.25">
-      <c r="CC30" s="1"/>
-    </row>
-    <row r="31" spans="1:81" x14ac:dyDescent="0.25">
-      <c r="CC31" s="1"/>
-    </row>
-    <row r="32" spans="1:81" x14ac:dyDescent="0.25">
-      <c r="CC32" s="1"/>
-    </row>
-    <row r="33" spans="1:81" x14ac:dyDescent="0.25">
-      <c r="CC33" s="1"/>
-    </row>
-    <row r="34" spans="1:81" x14ac:dyDescent="0.25">
-      <c r="CC34" s="1"/>
-    </row>
-    <row r="35" spans="1:81" x14ac:dyDescent="0.25">
-      <c r="CC35" s="1"/>
-    </row>
-    <row r="36" spans="1:81" x14ac:dyDescent="0.25">
-      <c r="CC36" s="1"/>
-    </row>
-    <row r="37" spans="1:81" x14ac:dyDescent="0.25">
-      <c r="CC37" s="1"/>
-    </row>
-    <row r="38" spans="1:81" x14ac:dyDescent="0.25">
-      <c r="CC38" s="1"/>
-    </row>
-    <row r="39" spans="1:81" x14ac:dyDescent="0.25">
-      <c r="CC39" s="1"/>
-    </row>
-    <row r="40" spans="1:81" x14ac:dyDescent="0.25">
-      <c r="CC40" s="1"/>
-    </row>
-    <row r="41" spans="1:81" x14ac:dyDescent="0.25">
-      <c r="CC41" s="1"/>
-    </row>
-    <row r="42" spans="1:81" x14ac:dyDescent="0.25">
-      <c r="CC42" s="1"/>
-    </row>
-    <row r="43" spans="1:81" x14ac:dyDescent="0.25">
-      <c r="CC43" s="1"/>
-    </row>
-    <row r="44" spans="1:81" x14ac:dyDescent="0.25">
-      <c r="CC44" s="1"/>
-    </row>
-    <row r="45" spans="1:81" x14ac:dyDescent="0.25">
-      <c r="CC45" s="1"/>
-    </row>
-    <row r="46" spans="1:81" x14ac:dyDescent="0.25">
-      <c r="CC46" s="1"/>
-    </row>
-    <row r="47" spans="1:81" x14ac:dyDescent="0.25">
-      <c r="CC47" s="1"/>
-    </row>
-    <row r="48" spans="1:81" x14ac:dyDescent="0.25">
-      <c r="A48" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B48" s="1"/>
-      <c r="C48" s="1"/>
-      <c r="D48" s="1"/>
-      <c r="E48" s="1"/>
-      <c r="F48" s="1"/>
-      <c r="G48" s="1"/>
-      <c r="H48" s="1"/>
-      <c r="I48" s="1"/>
-      <c r="J48" s="1"/>
-      <c r="K48" s="1"/>
-      <c r="L48" s="1"/>
-      <c r="M48" s="1"/>
-      <c r="N48" s="1"/>
-      <c r="O48" s="1"/>
-      <c r="P48" s="1"/>
-      <c r="Q48" s="1"/>
-      <c r="R48" s="1"/>
-      <c r="S48" s="1"/>
-      <c r="T48" s="1"/>
-      <c r="U48" s="1"/>
-      <c r="V48" s="1"/>
-      <c r="W48" s="1"/>
-      <c r="X48" s="1"/>
-      <c r="Y48" s="1"/>
-      <c r="Z48" s="1"/>
-      <c r="AA48" s="1"/>
-      <c r="AB48" s="1"/>
-      <c r="AC48" s="1"/>
-      <c r="AD48" s="1"/>
-      <c r="AE48" s="1"/>
-      <c r="AF48" s="1"/>
-      <c r="AG48" s="1"/>
-      <c r="AH48" s="1"/>
-      <c r="AI48" s="1"/>
-      <c r="AJ48" s="1"/>
-      <c r="AK48" s="1"/>
-      <c r="AL48" s="1"/>
-      <c r="AM48" s="1"/>
-      <c r="AN48" s="1"/>
-      <c r="AO48" s="1"/>
-      <c r="AP48" s="1"/>
-      <c r="AQ48" s="1"/>
-      <c r="AR48" s="1"/>
-      <c r="AS48" s="1"/>
-      <c r="AT48" s="1"/>
-      <c r="AU48" s="1"/>
-      <c r="AV48" s="1"/>
-      <c r="AW48" s="1"/>
-      <c r="AX48" s="1"/>
-      <c r="AY48" s="1"/>
-      <c r="AZ48" s="1"/>
-      <c r="BA48" s="1"/>
-      <c r="BB48" s="1"/>
-      <c r="BC48" s="1"/>
-      <c r="BD48" s="1"/>
-      <c r="BE48" s="1"/>
-      <c r="BF48" s="1"/>
-      <c r="BG48" s="1"/>
-      <c r="BH48" s="1"/>
-      <c r="BI48" s="1"/>
-      <c r="BJ48" s="1"/>
-      <c r="BK48" s="1"/>
-      <c r="BL48" s="1"/>
-      <c r="BM48" s="1"/>
-      <c r="BN48" s="1"/>
-      <c r="BO48" s="1"/>
-      <c r="BP48" s="1"/>
-      <c r="BQ48" s="1"/>
-      <c r="BR48" s="1"/>
-      <c r="BS48" s="1"/>
-      <c r="BT48" s="1"/>
-      <c r="BU48" s="1"/>
-      <c r="BV48" s="1"/>
-      <c r="BW48" s="1"/>
-      <c r="BX48" s="1"/>
-      <c r="BY48" s="1"/>
-      <c r="BZ48" s="1"/>
-      <c r="CA48" s="1"/>
-      <c r="CB48" s="1"/>
-      <c r="CC48" s="1"/>
-    </row>
-    <row r="49" spans="81:81" x14ac:dyDescent="0.25">
-      <c r="CC49" s="1"/>
-    </row>
-    <row r="50" spans="81:81" x14ac:dyDescent="0.25">
-      <c r="CC50" s="1"/>
-    </row>
-    <row r="51" spans="81:81" x14ac:dyDescent="0.25">
-      <c r="CC51" s="1"/>
-    </row>
-    <row r="52" spans="81:81" x14ac:dyDescent="0.25">
-      <c r="CC52" s="1"/>
-    </row>
-    <row r="53" spans="81:81" x14ac:dyDescent="0.25">
-      <c r="CC53" s="1"/>
-    </row>
-    <row r="54" spans="81:81" x14ac:dyDescent="0.25">
-      <c r="CC54" s="1"/>
-    </row>
-    <row r="55" spans="81:81" x14ac:dyDescent="0.25">
-      <c r="CC55" s="1"/>
-    </row>
-    <row r="56" spans="81:81" x14ac:dyDescent="0.25">
-      <c r="CC56" s="1"/>
-    </row>
-    <row r="57" spans="81:81" x14ac:dyDescent="0.25">
-      <c r="CC57" s="1"/>
-    </row>
-    <row r="58" spans="81:81" x14ac:dyDescent="0.25">
-      <c r="CC58" s="1"/>
-    </row>
-    <row r="59" spans="81:81" x14ac:dyDescent="0.25">
-      <c r="CC59" s="1"/>
-    </row>
-    <row r="60" spans="81:81" x14ac:dyDescent="0.25">
-      <c r="CC60" s="1"/>
-    </row>
-    <row r="61" spans="81:81" x14ac:dyDescent="0.25">
-      <c r="CC61" s="1"/>
-    </row>
-    <row r="62" spans="81:81" x14ac:dyDescent="0.25">
-      <c r="CC62" s="1"/>
-    </row>
-    <row r="63" spans="81:81" x14ac:dyDescent="0.25">
-      <c r="CC63" s="1"/>
-    </row>
-    <row r="64" spans="81:81" x14ac:dyDescent="0.25">
-      <c r="CC64" s="1"/>
-    </row>
-    <row r="65" spans="1:81" x14ac:dyDescent="0.25">
-      <c r="CC65" s="1"/>
-    </row>
-    <row r="66" spans="1:81" x14ac:dyDescent="0.25">
-      <c r="CC66" s="1"/>
-    </row>
-    <row r="67" spans="1:81" x14ac:dyDescent="0.25">
-      <c r="CC67" s="1"/>
-    </row>
-    <row r="68" spans="1:81" x14ac:dyDescent="0.25">
-      <c r="CC68" s="1"/>
-    </row>
-    <row r="69" spans="1:81" x14ac:dyDescent="0.25">
-      <c r="CC69" s="1"/>
-    </row>
-    <row r="70" spans="1:81" x14ac:dyDescent="0.25">
-      <c r="CC70" s="1"/>
-    </row>
-    <row r="71" spans="1:81" x14ac:dyDescent="0.25">
-      <c r="A71" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B71" s="1"/>
-      <c r="C71" s="1"/>
-      <c r="D71" s="1"/>
-      <c r="E71" s="1"/>
-      <c r="F71" s="1"/>
-      <c r="G71" s="1"/>
-      <c r="H71" s="1"/>
-      <c r="I71" s="1"/>
-      <c r="J71" s="1"/>
-      <c r="K71" s="1"/>
-      <c r="L71" s="1"/>
-      <c r="M71" s="1"/>
-      <c r="N71" s="1"/>
-      <c r="O71" s="1"/>
-      <c r="P71" s="1"/>
-      <c r="Q71" s="1"/>
-      <c r="R71" s="1"/>
-      <c r="S71" s="1"/>
-      <c r="T71" s="1"/>
-      <c r="U71" s="1"/>
-      <c r="V71" s="1"/>
-      <c r="W71" s="1"/>
-      <c r="X71" s="1"/>
-      <c r="Y71" s="1"/>
-      <c r="Z71" s="1"/>
-      <c r="AA71" s="1"/>
-      <c r="AB71" s="1"/>
-      <c r="AC71" s="1"/>
-      <c r="AD71" s="1"/>
-      <c r="AE71" s="1"/>
-      <c r="AF71" s="1"/>
-      <c r="AG71" s="1"/>
-      <c r="AH71" s="1"/>
-      <c r="AI71" s="1"/>
-      <c r="AJ71" s="1"/>
-      <c r="AK71" s="1"/>
-      <c r="AL71" s="1"/>
-      <c r="AM71" s="1"/>
-      <c r="AN71" s="1"/>
-      <c r="AO71" s="1"/>
-      <c r="AP71" s="1"/>
-      <c r="AQ71" s="1"/>
-      <c r="AR71" s="1"/>
-      <c r="AS71" s="1"/>
-      <c r="AT71" s="1"/>
-      <c r="AU71" s="1"/>
-      <c r="AV71" s="1"/>
-      <c r="AW71" s="1"/>
-      <c r="AX71" s="1"/>
-      <c r="AY71" s="1"/>
-      <c r="AZ71" s="1"/>
-      <c r="BA71" s="1"/>
-      <c r="BB71" s="1"/>
-      <c r="BC71" s="1"/>
-      <c r="BD71" s="1"/>
-      <c r="BE71" s="1"/>
-      <c r="BF71" s="1"/>
-      <c r="BG71" s="1"/>
-      <c r="BH71" s="1"/>
-      <c r="BI71" s="1"/>
-      <c r="BJ71" s="1"/>
-      <c r="BK71" s="1"/>
-      <c r="BL71" s="1"/>
-      <c r="BM71" s="1"/>
-      <c r="BN71" s="1"/>
-      <c r="BO71" s="1"/>
-      <c r="BP71" s="1"/>
-      <c r="BQ71" s="1"/>
-      <c r="BR71" s="1"/>
-      <c r="BS71" s="1"/>
-      <c r="BT71" s="1"/>
-      <c r="BU71" s="1"/>
-      <c r="BV71" s="1"/>
-      <c r="BW71" s="1"/>
-      <c r="BX71" s="1"/>
-      <c r="BY71" s="1"/>
-      <c r="BZ71" s="1"/>
-      <c r="CA71" s="1"/>
-      <c r="CB71" s="1"/>
-      <c r="CC71" s="1"/>
-    </row>
-    <row r="72" spans="1:81" x14ac:dyDescent="0.25">
-      <c r="CC72" s="1"/>
-    </row>
-    <row r="73" spans="1:81" x14ac:dyDescent="0.25">
-      <c r="CC73" s="1"/>
-    </row>
-    <row r="74" spans="1:81" x14ac:dyDescent="0.25">
-      <c r="CC74" s="1"/>
-    </row>
-    <row r="75" spans="1:81" x14ac:dyDescent="0.25">
-      <c r="CC75" s="1"/>
-    </row>
-    <row r="76" spans="1:81" x14ac:dyDescent="0.25">
-      <c r="CC76" s="1"/>
-    </row>
-    <row r="77" spans="1:81" x14ac:dyDescent="0.25">
-      <c r="CC77" s="1"/>
-    </row>
-    <row r="78" spans="1:81" x14ac:dyDescent="0.25">
-      <c r="CC78" s="1"/>
-    </row>
-    <row r="79" spans="1:81" x14ac:dyDescent="0.25">
-      <c r="CC79" s="1"/>
-    </row>
-    <row r="80" spans="1:81" x14ac:dyDescent="0.25">
-      <c r="CC80" s="1"/>
-    </row>
-    <row r="81" spans="1:81" x14ac:dyDescent="0.25">
-      <c r="CC81" s="1"/>
-    </row>
-    <row r="82" spans="1:81" x14ac:dyDescent="0.25">
-      <c r="CC82" s="1"/>
-    </row>
-    <row r="83" spans="1:81" x14ac:dyDescent="0.25">
-      <c r="CC83" s="1"/>
-    </row>
-    <row r="84" spans="1:81" x14ac:dyDescent="0.25">
-      <c r="CC84" s="1"/>
-    </row>
-    <row r="85" spans="1:81" x14ac:dyDescent="0.25">
-      <c r="CC85" s="1"/>
-    </row>
-    <row r="86" spans="1:81" x14ac:dyDescent="0.25">
-      <c r="CC86" s="1"/>
-    </row>
-    <row r="87" spans="1:81" x14ac:dyDescent="0.25">
-      <c r="CC87" s="1"/>
-    </row>
-    <row r="88" spans="1:81" x14ac:dyDescent="0.25">
-      <c r="CC88" s="1"/>
-    </row>
-    <row r="89" spans="1:81" x14ac:dyDescent="0.25">
-      <c r="CC89" s="1"/>
-    </row>
-    <row r="90" spans="1:81" x14ac:dyDescent="0.25">
-      <c r="CC90" s="1"/>
-    </row>
-    <row r="91" spans="1:81" x14ac:dyDescent="0.25">
-      <c r="CC91" s="1"/>
-    </row>
-    <row r="92" spans="1:81" x14ac:dyDescent="0.25">
-      <c r="CC92" s="1"/>
-    </row>
-    <row r="93" spans="1:81" x14ac:dyDescent="0.25">
-      <c r="CC93" s="1"/>
-    </row>
-    <row r="94" spans="1:81" x14ac:dyDescent="0.25">
-      <c r="A94" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B94" s="1"/>
-      <c r="C94" s="1"/>
-      <c r="D94" s="1"/>
-      <c r="E94" s="1"/>
-      <c r="F94" s="1"/>
-      <c r="G94" s="1"/>
-      <c r="H94" s="1"/>
-      <c r="I94" s="1"/>
-      <c r="J94" s="1"/>
-      <c r="K94" s="1"/>
-      <c r="L94" s="1"/>
-      <c r="M94" s="1"/>
-      <c r="N94" s="1"/>
-      <c r="O94" s="1"/>
-      <c r="P94" s="1"/>
-      <c r="Q94" s="1"/>
-      <c r="R94" s="1"/>
-      <c r="S94" s="1"/>
-      <c r="T94" s="1"/>
-      <c r="U94" s="1"/>
-      <c r="V94" s="1"/>
-      <c r="W94" s="1"/>
-      <c r="X94" s="1"/>
-      <c r="Y94" s="1"/>
-      <c r="Z94" s="1"/>
-      <c r="AA94" s="1"/>
-      <c r="AB94" s="1"/>
-      <c r="AC94" s="1"/>
-      <c r="AD94" s="1"/>
-      <c r="AE94" s="1"/>
-      <c r="AF94" s="1"/>
-      <c r="AG94" s="1"/>
-      <c r="AH94" s="1"/>
-      <c r="AI94" s="1"/>
-      <c r="AJ94" s="1"/>
-      <c r="AK94" s="1"/>
-      <c r="AL94" s="1"/>
-      <c r="AM94" s="1"/>
-      <c r="AN94" s="1"/>
-      <c r="AO94" s="1"/>
-      <c r="AP94" s="1"/>
-      <c r="AQ94" s="1"/>
-      <c r="AR94" s="1"/>
-      <c r="AS94" s="1"/>
-      <c r="AT94" s="1"/>
-      <c r="AU94" s="1"/>
-      <c r="AV94" s="1"/>
-      <c r="AW94" s="1"/>
-      <c r="AX94" s="1"/>
-      <c r="AY94" s="1"/>
-      <c r="AZ94" s="1"/>
-      <c r="BA94" s="1"/>
-      <c r="BB94" s="1"/>
-      <c r="BC94" s="1"/>
-      <c r="BD94" s="1"/>
-      <c r="BE94" s="1"/>
-      <c r="BF94" s="1"/>
-      <c r="BG94" s="1"/>
-      <c r="BH94" s="1"/>
-      <c r="BI94" s="1"/>
-      <c r="BJ94" s="1"/>
-      <c r="BK94" s="1"/>
-      <c r="BL94" s="1"/>
-      <c r="BM94" s="1"/>
-      <c r="BN94" s="1"/>
-      <c r="BO94" s="1"/>
-      <c r="BP94" s="1"/>
-      <c r="BQ94" s="1"/>
-      <c r="BR94" s="1"/>
-      <c r="BS94" s="1"/>
-      <c r="BT94" s="1"/>
-      <c r="BU94" s="1"/>
-      <c r="BV94" s="1"/>
-      <c r="BW94" s="1"/>
-      <c r="BX94" s="1"/>
-      <c r="BY94" s="1"/>
-      <c r="BZ94" s="1"/>
-      <c r="CA94" s="1"/>
-      <c r="CB94" s="1"/>
-      <c r="CC94" s="1"/>
-    </row>
-    <row r="95" spans="1:81" x14ac:dyDescent="0.25">
-      <c r="CC95" s="1"/>
-    </row>
-    <row r="96" spans="1:81" x14ac:dyDescent="0.25">
+      <c r="B96" s="1"/>
+      <c r="C96" s="1"/>
+      <c r="D96" s="1"/>
+      <c r="E96" s="1"/>
+      <c r="F96" s="1"/>
+      <c r="G96" s="1"/>
+      <c r="H96" s="1"/>
+      <c r="I96" s="1"/>
+      <c r="J96" s="1"/>
+      <c r="K96" s="1"/>
+      <c r="L96" s="1"/>
+      <c r="M96" s="1"/>
+      <c r="N96" s="1"/>
+      <c r="O96" s="1"/>
+      <c r="P96" s="1"/>
+      <c r="Q96" s="1"/>
+      <c r="R96" s="1"/>
+      <c r="S96" s="1"/>
+      <c r="T96" s="1"/>
+      <c r="U96" s="1"/>
+      <c r="V96" s="1"/>
+      <c r="W96" s="1"/>
+      <c r="X96" s="1"/>
+      <c r="Y96" s="1"/>
+      <c r="Z96" s="1"/>
+      <c r="AA96" s="1"/>
+      <c r="AB96" s="1"/>
+      <c r="AC96" s="1"/>
+      <c r="AD96" s="1"/>
+      <c r="AE96" s="1"/>
+      <c r="AF96" s="1"/>
+      <c r="AG96" s="1"/>
+      <c r="AH96" s="1"/>
+      <c r="AI96" s="1"/>
+      <c r="AJ96" s="1"/>
+      <c r="AK96" s="1"/>
+      <c r="AL96" s="1"/>
+      <c r="AM96" s="1"/>
+      <c r="AN96" s="1"/>
+      <c r="AO96" s="1"/>
+      <c r="AP96" s="1"/>
+      <c r="AQ96" s="1"/>
+      <c r="AR96" s="1"/>
+      <c r="AS96" s="1"/>
+      <c r="AT96" s="1"/>
+      <c r="AU96" s="1"/>
+      <c r="AV96" s="1"/>
+      <c r="AW96" s="1"/>
+      <c r="AX96" s="1"/>
+      <c r="AY96" s="1"/>
+      <c r="AZ96" s="1"/>
+      <c r="BA96" s="1"/>
+      <c r="BB96" s="1"/>
+      <c r="BC96" s="1"/>
+      <c r="BD96" s="1"/>
+      <c r="BE96" s="1"/>
+      <c r="BF96" s="1"/>
+      <c r="BG96" s="1"/>
+      <c r="BH96" s="1"/>
+      <c r="BI96" s="1"/>
+      <c r="BJ96" s="1"/>
+      <c r="BK96" s="1"/>
+      <c r="BL96" s="1"/>
+      <c r="BM96" s="1"/>
+      <c r="BN96" s="1"/>
+      <c r="BO96" s="1"/>
+      <c r="BP96" s="1"/>
+      <c r="BQ96" s="1"/>
+      <c r="BR96" s="1"/>
+      <c r="BS96" s="1"/>
+      <c r="BT96" s="1"/>
+      <c r="BU96" s="1"/>
+      <c r="BV96" s="1"/>
+      <c r="BW96" s="1"/>
+      <c r="BX96" s="1"/>
+      <c r="BY96" s="1"/>
+      <c r="BZ96" s="1"/>
+      <c r="CA96" s="1"/>
+      <c r="CB96" s="1"/>
       <c r="CC96" s="1"/>
     </row>
     <row r="97" spans="81:81" x14ac:dyDescent="0.25">
@@ -3728,238 +4155,93 @@
       <c r="CC116" s="1"/>
     </row>
     <row r="117" spans="1:81" x14ac:dyDescent="0.25">
-      <c r="A117" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B117" s="1"/>
-      <c r="C117" s="1"/>
-      <c r="D117" s="1"/>
-      <c r="E117" s="1"/>
-      <c r="F117" s="1"/>
-      <c r="G117" s="1"/>
-      <c r="H117" s="1"/>
-      <c r="I117" s="1"/>
-      <c r="J117" s="1"/>
-      <c r="K117" s="1"/>
-      <c r="L117" s="1"/>
-      <c r="M117" s="1"/>
-      <c r="N117" s="1"/>
-      <c r="O117" s="1"/>
-      <c r="P117" s="1"/>
-      <c r="Q117" s="1"/>
-      <c r="R117" s="1"/>
-      <c r="S117" s="1"/>
-      <c r="T117" s="1"/>
-      <c r="U117" s="1"/>
-      <c r="V117" s="1"/>
-      <c r="W117" s="1"/>
-      <c r="X117" s="1"/>
-      <c r="Y117" s="1"/>
-      <c r="Z117" s="1"/>
-      <c r="AA117" s="1"/>
-      <c r="AB117" s="1"/>
-      <c r="AC117" s="1"/>
-      <c r="AD117" s="1"/>
-      <c r="AE117" s="1"/>
-      <c r="AF117" s="1"/>
-      <c r="AG117" s="1"/>
-      <c r="AH117" s="1"/>
-      <c r="AI117" s="1"/>
-      <c r="AJ117" s="1"/>
-      <c r="AK117" s="1"/>
-      <c r="AL117" s="1"/>
-      <c r="AM117" s="1"/>
-      <c r="AN117" s="1"/>
-      <c r="AO117" s="1"/>
-      <c r="AP117" s="1"/>
-      <c r="AQ117" s="1"/>
-      <c r="AR117" s="1"/>
-      <c r="AS117" s="1"/>
-      <c r="AT117" s="1"/>
-      <c r="AU117" s="1"/>
-      <c r="AV117" s="1"/>
-      <c r="AW117" s="1"/>
-      <c r="AX117" s="1"/>
-      <c r="AY117" s="1"/>
-      <c r="AZ117" s="1"/>
-      <c r="BA117" s="1"/>
-      <c r="BB117" s="1"/>
-      <c r="BC117" s="1"/>
-      <c r="BD117" s="1"/>
-      <c r="BE117" s="1"/>
-      <c r="BF117" s="1"/>
-      <c r="BG117" s="1"/>
-      <c r="BH117" s="1"/>
-      <c r="BI117" s="1"/>
-      <c r="BJ117" s="1"/>
-      <c r="BK117" s="1"/>
-      <c r="BL117" s="1"/>
-      <c r="BM117" s="1"/>
-      <c r="BN117" s="1"/>
-      <c r="BO117" s="1"/>
-      <c r="BP117" s="1"/>
-      <c r="BQ117" s="1"/>
-      <c r="BR117" s="1"/>
-      <c r="BS117" s="1"/>
-      <c r="BT117" s="1"/>
-      <c r="BU117" s="1"/>
-      <c r="BV117" s="1"/>
-      <c r="BW117" s="1"/>
-      <c r="BX117" s="1"/>
-      <c r="BY117" s="1"/>
-      <c r="BZ117" s="1"/>
-      <c r="CA117" s="1"/>
-      <c r="CB117" s="1"/>
       <c r="CC117" s="1"/>
     </row>
     <row r="118" spans="1:81" x14ac:dyDescent="0.25">
       <c r="CC118" s="1"/>
     </row>
     <row r="119" spans="1:81" x14ac:dyDescent="0.25">
+      <c r="A119" s="1"/>
+      <c r="B119" s="1"/>
+      <c r="C119" s="1"/>
+      <c r="D119" s="1"/>
+      <c r="E119" s="1"/>
+      <c r="F119" s="1"/>
+      <c r="G119" s="1"/>
+      <c r="H119" s="1"/>
+      <c r="I119" s="1"/>
+      <c r="J119" s="1"/>
+      <c r="K119" s="1"/>
+      <c r="L119" s="1"/>
+      <c r="M119" s="1"/>
+      <c r="N119" s="1"/>
+      <c r="O119" s="1"/>
+      <c r="P119" s="1"/>
+      <c r="Q119" s="1"/>
+      <c r="R119" s="1"/>
+      <c r="S119" s="1"/>
+      <c r="T119" s="1"/>
+      <c r="U119" s="1"/>
+      <c r="V119" s="1"/>
+      <c r="W119" s="1"/>
+      <c r="X119" s="1"/>
+      <c r="Y119" s="1"/>
+      <c r="Z119" s="1"/>
+      <c r="AA119" s="1"/>
+      <c r="AB119" s="1"/>
+      <c r="AC119" s="1"/>
+      <c r="AD119" s="1"/>
+      <c r="AE119" s="1"/>
+      <c r="AF119" s="1"/>
+      <c r="AG119" s="1"/>
+      <c r="AH119" s="1"/>
+      <c r="AI119" s="1"/>
+      <c r="AJ119" s="1"/>
+      <c r="AK119" s="1"/>
+      <c r="AL119" s="1"/>
+      <c r="AM119" s="1"/>
+      <c r="AN119" s="1"/>
+      <c r="AO119" s="1"/>
+      <c r="AP119" s="1"/>
+      <c r="AQ119" s="1"/>
+      <c r="AR119" s="1"/>
+      <c r="AS119" s="1"/>
+      <c r="AT119" s="1"/>
+      <c r="AU119" s="1"/>
+      <c r="AV119" s="1"/>
+      <c r="AW119" s="1"/>
+      <c r="AX119" s="1"/>
+      <c r="AY119" s="1"/>
+      <c r="AZ119" s="1"/>
+      <c r="BA119" s="1"/>
+      <c r="BB119" s="1"/>
+      <c r="BC119" s="1"/>
+      <c r="BD119" s="1"/>
+      <c r="BE119" s="1"/>
+      <c r="BF119" s="1"/>
+      <c r="BG119" s="1"/>
+      <c r="BH119" s="1"/>
+      <c r="BI119" s="1"/>
+      <c r="BJ119" s="1"/>
+      <c r="BK119" s="1"/>
+      <c r="BL119" s="1"/>
+      <c r="BM119" s="1"/>
+      <c r="BN119" s="1"/>
+      <c r="BO119" s="1"/>
+      <c r="BP119" s="1"/>
+      <c r="BQ119" s="1"/>
+      <c r="BR119" s="1"/>
+      <c r="BS119" s="1"/>
+      <c r="BT119" s="1"/>
+      <c r="BU119" s="1"/>
+      <c r="BV119" s="1"/>
+      <c r="BW119" s="1"/>
+      <c r="BX119" s="1"/>
+      <c r="BY119" s="1"/>
+      <c r="BZ119" s="1"/>
+      <c r="CA119" s="1"/>
+      <c r="CB119" s="1"/>
       <c r="CC119" s="1"/>
-    </row>
-    <row r="120" spans="1:81" x14ac:dyDescent="0.25">
-      <c r="CC120" s="1"/>
-    </row>
-    <row r="121" spans="1:81" x14ac:dyDescent="0.25">
-      <c r="CC121" s="1"/>
-    </row>
-    <row r="122" spans="1:81" x14ac:dyDescent="0.25">
-      <c r="CC122" s="1"/>
-    </row>
-    <row r="123" spans="1:81" x14ac:dyDescent="0.25">
-      <c r="CC123" s="1"/>
-    </row>
-    <row r="124" spans="1:81" x14ac:dyDescent="0.25">
-      <c r="CC124" s="1"/>
-    </row>
-    <row r="125" spans="1:81" x14ac:dyDescent="0.25">
-      <c r="CC125" s="1"/>
-    </row>
-    <row r="126" spans="1:81" x14ac:dyDescent="0.25">
-      <c r="CC126" s="1"/>
-    </row>
-    <row r="127" spans="1:81" x14ac:dyDescent="0.25">
-      <c r="CC127" s="1"/>
-    </row>
-    <row r="128" spans="1:81" x14ac:dyDescent="0.25">
-      <c r="CC128" s="1"/>
-    </row>
-    <row r="129" spans="1:81" x14ac:dyDescent="0.25">
-      <c r="CC129" s="1"/>
-    </row>
-    <row r="130" spans="1:81" x14ac:dyDescent="0.25">
-      <c r="CC130" s="1"/>
-    </row>
-    <row r="131" spans="1:81" x14ac:dyDescent="0.25">
-      <c r="CC131" s="1"/>
-    </row>
-    <row r="132" spans="1:81" x14ac:dyDescent="0.25">
-      <c r="CC132" s="1"/>
-    </row>
-    <row r="133" spans="1:81" x14ac:dyDescent="0.25">
-      <c r="CC133" s="1"/>
-    </row>
-    <row r="134" spans="1:81" x14ac:dyDescent="0.25">
-      <c r="CC134" s="1"/>
-    </row>
-    <row r="135" spans="1:81" x14ac:dyDescent="0.25">
-      <c r="CC135" s="1"/>
-    </row>
-    <row r="136" spans="1:81" x14ac:dyDescent="0.25">
-      <c r="CC136" s="1"/>
-    </row>
-    <row r="137" spans="1:81" x14ac:dyDescent="0.25">
-      <c r="CC137" s="1"/>
-    </row>
-    <row r="138" spans="1:81" x14ac:dyDescent="0.25">
-      <c r="CC138" s="1"/>
-    </row>
-    <row r="139" spans="1:81" x14ac:dyDescent="0.25">
-      <c r="CC139" s="1"/>
-    </row>
-    <row r="140" spans="1:81" x14ac:dyDescent="0.25">
-      <c r="A140" s="1"/>
-      <c r="B140" s="1"/>
-      <c r="C140" s="1"/>
-      <c r="D140" s="1"/>
-      <c r="E140" s="1"/>
-      <c r="F140" s="1"/>
-      <c r="G140" s="1"/>
-      <c r="H140" s="1"/>
-      <c r="I140" s="1"/>
-      <c r="J140" s="1"/>
-      <c r="K140" s="1"/>
-      <c r="L140" s="1"/>
-      <c r="M140" s="1"/>
-      <c r="N140" s="1"/>
-      <c r="O140" s="1"/>
-      <c r="P140" s="1"/>
-      <c r="Q140" s="1"/>
-      <c r="R140" s="1"/>
-      <c r="S140" s="1"/>
-      <c r="T140" s="1"/>
-      <c r="U140" s="1"/>
-      <c r="V140" s="1"/>
-      <c r="W140" s="1"/>
-      <c r="X140" s="1"/>
-      <c r="Y140" s="1"/>
-      <c r="Z140" s="1"/>
-      <c r="AA140" s="1"/>
-      <c r="AB140" s="1"/>
-      <c r="AC140" s="1"/>
-      <c r="AD140" s="1"/>
-      <c r="AE140" s="1"/>
-      <c r="AF140" s="1"/>
-      <c r="AG140" s="1"/>
-      <c r="AH140" s="1"/>
-      <c r="AI140" s="1"/>
-      <c r="AJ140" s="1"/>
-      <c r="AK140" s="1"/>
-      <c r="AL140" s="1"/>
-      <c r="AM140" s="1"/>
-      <c r="AN140" s="1"/>
-      <c r="AO140" s="1"/>
-      <c r="AP140" s="1"/>
-      <c r="AQ140" s="1"/>
-      <c r="AR140" s="1"/>
-      <c r="AS140" s="1"/>
-      <c r="AT140" s="1"/>
-      <c r="AU140" s="1"/>
-      <c r="AV140" s="1"/>
-      <c r="AW140" s="1"/>
-      <c r="AX140" s="1"/>
-      <c r="AY140" s="1"/>
-      <c r="AZ140" s="1"/>
-      <c r="BA140" s="1"/>
-      <c r="BB140" s="1"/>
-      <c r="BC140" s="1"/>
-      <c r="BD140" s="1"/>
-      <c r="BE140" s="1"/>
-      <c r="BF140" s="1"/>
-      <c r="BG140" s="1"/>
-      <c r="BH140" s="1"/>
-      <c r="BI140" s="1"/>
-      <c r="BJ140" s="1"/>
-      <c r="BK140" s="1"/>
-      <c r="BL140" s="1"/>
-      <c r="BM140" s="1"/>
-      <c r="BN140" s="1"/>
-      <c r="BO140" s="1"/>
-      <c r="BP140" s="1"/>
-      <c r="BQ140" s="1"/>
-      <c r="BR140" s="1"/>
-      <c r="BS140" s="1"/>
-      <c r="BT140" s="1"/>
-      <c r="BU140" s="1"/>
-      <c r="BV140" s="1"/>
-      <c r="BW140" s="1"/>
-      <c r="BX140" s="1"/>
-      <c r="BY140" s="1"/>
-      <c r="BZ140" s="1"/>
-      <c r="CA140" s="1"/>
-      <c r="CB140" s="1"/>
-      <c r="CC140" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
